--- a/Christos_first_second/err2_off_f36.xlsx
+++ b/Christos_first_second/err2_off_f36.xlsx
@@ -417,10 +417,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-57.71</v>
+        <v>-153.08</v>
       </c>
       <c r="C2" t="n">
-        <v>57.71</v>
+        <v>153.08</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -437,10 +437,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.79</v>
+        <v>0.23</v>
       </c>
       <c r="C3" t="n">
-        <v>0.79</v>
+        <v>0.23</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -457,10 +457,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>147.65</v>
+        <v>-4.15</v>
       </c>
       <c r="C4" t="n">
-        <v>147.65</v>
+        <v>4.15</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -477,10 +477,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-159.98</v>
+        <v>7.9</v>
       </c>
       <c r="C5" t="n">
-        <v>159.98</v>
+        <v>7.9</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -497,10 +497,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.25</v>
+        <v>-4.21</v>
       </c>
       <c r="C6" t="n">
-        <v>0.25</v>
+        <v>4.21</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -517,10 +517,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32.69</v>
+        <v>-44.16</v>
       </c>
       <c r="C7" t="n">
-        <v>32.69</v>
+        <v>44.16</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -537,10 +537,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-9.279999999999999</v>
+        <v>10.36</v>
       </c>
       <c r="C8" t="n">
-        <v>9.279999999999999</v>
+        <v>10.36</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -557,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>120.74</v>
+        <v>-77.86</v>
       </c>
       <c r="C9" t="n">
-        <v>120.74</v>
+        <v>77.86</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -577,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.02</v>
+        <v>-1.87</v>
       </c>
       <c r="C10" t="n">
-        <v>7.02</v>
+        <v>1.87</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -597,10 +597,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>159.45</v>
+        <v>128</v>
       </c>
       <c r="C11" t="n">
-        <v>159.45</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -617,10 +617,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-6.1</v>
+        <v>-6.01</v>
       </c>
       <c r="C12" t="n">
-        <v>6.1</v>
+        <v>6.01</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -637,10 +637,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.69</v>
+        <v>-15.32</v>
       </c>
       <c r="C13" t="n">
-        <v>1.69</v>
+        <v>15.32</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -657,10 +657,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-3.6</v>
+        <v>134.74</v>
       </c>
       <c r="C14" t="n">
-        <v>3.6</v>
+        <v>134.74</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -677,10 +677,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-125.39</v>
+        <v>30.84</v>
       </c>
       <c r="C15" t="n">
-        <v>125.39</v>
+        <v>30.84</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -697,10 +697,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>78.43000000000001</v>
+        <v>-137.32</v>
       </c>
       <c r="C16" t="n">
-        <v>78.43000000000001</v>
+        <v>137.32</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -717,10 +717,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.13</v>
+        <v>11.32</v>
       </c>
       <c r="C17" t="n">
-        <v>1.13</v>
+        <v>11.32</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -737,10 +737,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-18.85</v>
+        <v>55.17</v>
       </c>
       <c r="C18" t="n">
-        <v>18.85</v>
+        <v>55.17</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -757,10 +757,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>61.79</v>
+        <v>27.43</v>
       </c>
       <c r="C19" t="n">
-        <v>61.79</v>
+        <v>27.43</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -777,10 +777,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.62</v>
+        <v>1.06</v>
       </c>
       <c r="C20" t="n">
-        <v>11.62</v>
+        <v>1.06</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -797,10 +797,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-88.56999999999999</v>
+        <v>105.85</v>
       </c>
       <c r="C21" t="n">
-        <v>88.56999999999999</v>
+        <v>105.85</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -817,10 +817,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-164.39</v>
+        <v>-104.4</v>
       </c>
       <c r="C22" t="n">
-        <v>164.39</v>
+        <v>104.4</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -837,10 +837,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>163.79</v>
+        <v>160.56</v>
       </c>
       <c r="C23" t="n">
-        <v>163.79</v>
+        <v>160.56</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -857,10 +857,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5.16</v>
+        <v>-47.41</v>
       </c>
       <c r="C24" t="n">
-        <v>5.16</v>
+        <v>47.41</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -877,10 +877,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-11.76</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>11.76</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -897,10 +897,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-143.76</v>
+        <v>-158.45</v>
       </c>
       <c r="C26" t="n">
-        <v>143.76</v>
+        <v>158.45</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -917,10 +917,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>125.98</v>
+        <v>-2.68</v>
       </c>
       <c r="C27" t="n">
-        <v>125.98</v>
+        <v>2.68</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -937,10 +937,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2.22</v>
+        <v>8.01</v>
       </c>
       <c r="C28" t="n">
-        <v>2.22</v>
+        <v>8.01</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -957,10 +957,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-9.359999999999999</v>
+        <v>3.54</v>
       </c>
       <c r="C29" t="n">
-        <v>9.359999999999999</v>
+        <v>3.54</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -977,10 +977,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>99.81</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>99.81</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -997,10 +997,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-175.75</v>
+        <v>1.77</v>
       </c>
       <c r="C31" t="n">
-        <v>175.75</v>
+        <v>1.77</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -1017,10 +1017,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>17.32</v>
+        <v>1.01</v>
       </c>
       <c r="C32" t="n">
-        <v>17.32</v>
+        <v>1.01</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -1037,10 +1037,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-37.79</v>
+        <v>175.74</v>
       </c>
       <c r="C33" t="n">
-        <v>37.79</v>
+        <v>175.74</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -1057,10 +1057,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-1.45</v>
+        <v>99.37</v>
       </c>
       <c r="C34" t="n">
-        <v>1.45</v>
+        <v>99.37</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -1077,10 +1077,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>121.35</v>
+        <v>72.12</v>
       </c>
       <c r="C35" t="n">
-        <v>121.35</v>
+        <v>72.12</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -1097,10 +1097,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>35.19</v>
+        <v>7.15</v>
       </c>
       <c r="C36" t="n">
-        <v>35.19</v>
+        <v>7.15</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -1117,10 +1117,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-6.58</v>
+        <v>-3.35</v>
       </c>
       <c r="C37" t="n">
-        <v>6.58</v>
+        <v>3.35</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -1137,10 +1137,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>166.53</v>
+        <v>-9.050000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>166.53</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -1157,10 +1157,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-20.45</v>
+        <v>145.87</v>
       </c>
       <c r="C39" t="n">
-        <v>20.45</v>
+        <v>145.87</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -1177,10 +1177,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2.41</v>
+        <v>63.87</v>
       </c>
       <c r="C40" t="n">
-        <v>2.41</v>
+        <v>63.87</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -1197,10 +1197,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-117.5</v>
+        <v>12.07</v>
       </c>
       <c r="C41" t="n">
-        <v>117.5</v>
+        <v>12.07</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -1217,10 +1217,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-20.67</v>
+        <v>5.65</v>
       </c>
       <c r="C42" t="n">
-        <v>20.67</v>
+        <v>5.65</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -1237,10 +1237,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.91</v>
+        <v>1.12</v>
       </c>
       <c r="C43" t="n">
-        <v>5.91</v>
+        <v>1.12</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
@@ -1257,10 +1257,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>107.67</v>
+        <v>-1.96</v>
       </c>
       <c r="C44" t="n">
-        <v>107.67</v>
+        <v>1.96</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -1277,10 +1277,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.52</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>3.52</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
@@ -1297,10 +1297,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2.93</v>
+        <v>12</v>
       </c>
       <c r="C46" t="n">
-        <v>2.93</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
@@ -1317,10 +1317,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>165.33</v>
+        <v>-163.6</v>
       </c>
       <c r="C47" t="n">
-        <v>165.33</v>
+        <v>163.6</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
@@ -1337,10 +1337,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-124.06</v>
+        <v>164.78</v>
       </c>
       <c r="C48" t="n">
-        <v>124.06</v>
+        <v>164.78</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -1357,10 +1357,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-13.26</v>
+        <v>-5.7</v>
       </c>
       <c r="C49" t="n">
-        <v>13.26</v>
+        <v>5.7</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
@@ -1377,10 +1377,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2.82</v>
+        <v>-1.36</v>
       </c>
       <c r="C50" t="n">
-        <v>2.82</v>
+        <v>1.36</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
@@ -1397,10 +1397,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>130.41</v>
+        <v>175.13</v>
       </c>
       <c r="C51" t="n">
-        <v>130.41</v>
+        <v>175.13</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
@@ -1417,10 +1417,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>110.15</v>
+        <v>112.45</v>
       </c>
       <c r="C52" t="n">
-        <v>110.15</v>
+        <v>112.45</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
@@ -1437,10 +1437,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>63.63</v>
+        <v>-0.57</v>
       </c>
       <c r="C53" t="n">
-        <v>63.63</v>
+        <v>0.57</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
@@ -1457,10 +1457,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9.94</v>
+        <v>60.51</v>
       </c>
       <c r="C54" t="n">
-        <v>9.94</v>
+        <v>60.51</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
@@ -1477,10 +1477,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-131.97</v>
+        <v>4.15</v>
       </c>
       <c r="C55" t="n">
-        <v>131.97</v>
+        <v>4.15</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
@@ -1497,10 +1497,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.11</v>
+        <v>1.75</v>
       </c>
       <c r="C56" t="n">
-        <v>0.11</v>
+        <v>1.75</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
@@ -1517,10 +1517,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-67.39</v>
+        <v>4.44</v>
       </c>
       <c r="C57" t="n">
-        <v>67.39</v>
+        <v>4.44</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
@@ -1537,10 +1537,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>42.94</v>
+        <v>-170</v>
       </c>
       <c r="C58" t="n">
-        <v>42.94</v>
+        <v>170</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
@@ -1557,10 +1557,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-10.14</v>
+        <v>-123.66</v>
       </c>
       <c r="C59" t="n">
-        <v>10.14</v>
+        <v>123.66</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
@@ -1577,10 +1577,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.61</v>
+        <v>8.81</v>
       </c>
       <c r="C60" t="n">
-        <v>1.61</v>
+        <v>8.81</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
@@ -1597,10 +1597,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-67.45</v>
+        <v>-10.28</v>
       </c>
       <c r="C61" t="n">
-        <v>67.45</v>
+        <v>10.28</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -1617,10 +1617,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>151.18</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>151.18</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -1637,10 +1637,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>8.710000000000001</v>
+        <v>-8.26</v>
       </c>
       <c r="C63" t="n">
-        <v>8.710000000000001</v>
+        <v>8.26</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
@@ -1657,10 +1657,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-105.03</v>
+        <v>-125.02</v>
       </c>
       <c r="C64" t="n">
-        <v>105.03</v>
+        <v>125.02</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
@@ -1677,10 +1677,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>77.88</v>
+        <v>57.36</v>
       </c>
       <c r="C65" t="n">
-        <v>77.88</v>
+        <v>57.36</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
@@ -1697,10 +1697,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.46</v>
+        <v>-125.04</v>
       </c>
       <c r="C66" t="n">
-        <v>0.46</v>
+        <v>125.04</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
@@ -1717,10 +1717,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>54.42</v>
+        <v>3.19</v>
       </c>
       <c r="C67" t="n">
-        <v>54.42</v>
+        <v>3.19</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
@@ -1737,10 +1737,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-14.14</v>
+        <v>-156.38</v>
       </c>
       <c r="C68" t="n">
-        <v>14.14</v>
+        <v>156.38</v>
       </c>
       <c r="D68" t="s">
         <v>5</v>
@@ -1757,10 +1757,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>8.550000000000001</v>
+        <v>13.97</v>
       </c>
       <c r="C69" t="n">
-        <v>8.550000000000001</v>
+        <v>13.97</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
@@ -1777,10 +1777,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>77.03</v>
+        <v>-5.99</v>
       </c>
       <c r="C70" t="n">
-        <v>77.03</v>
+        <v>5.99</v>
       </c>
       <c r="D70" t="s">
         <v>5</v>
@@ -1797,10 +1797,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-5.73</v>
+        <v>-0.12</v>
       </c>
       <c r="C71" t="n">
-        <v>5.73</v>
+        <v>0.12</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
@@ -1817,10 +1817,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-118.2</v>
+        <v>7.15</v>
       </c>
       <c r="C72" t="n">
-        <v>118.2</v>
+        <v>7.15</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
@@ -1837,10 +1837,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-150.48</v>
+        <v>-172.87</v>
       </c>
       <c r="C73" t="n">
-        <v>150.48</v>
+        <v>172.87</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -1857,10 +1857,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>104.39</v>
+        <v>85.47</v>
       </c>
       <c r="C74" t="n">
-        <v>104.39</v>
+        <v>85.47</v>
       </c>
       <c r="D74" t="s">
         <v>5</v>
@@ -1877,10 +1877,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-153.74</v>
+        <v>-3.43</v>
       </c>
       <c r="C75" t="n">
-        <v>153.74</v>
+        <v>3.43</v>
       </c>
       <c r="D75" t="s">
         <v>5</v>
@@ -1897,10 +1897,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-12.39</v>
+        <v>131.4</v>
       </c>
       <c r="C76" t="n">
-        <v>12.39</v>
+        <v>131.4</v>
       </c>
       <c r="D76" t="s">
         <v>5</v>
@@ -1917,10 +1917,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>38.73</v>
+        <v>9.6</v>
       </c>
       <c r="C77" t="n">
-        <v>38.73</v>
+        <v>9.6</v>
       </c>
       <c r="D77" t="s">
         <v>5</v>
@@ -1937,10 +1937,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.62</v>
+        <v>-3.61</v>
       </c>
       <c r="C78" t="n">
-        <v>0.62</v>
+        <v>3.61</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
@@ -1957,10 +1957,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-9.82</v>
+        <v>-103.55</v>
       </c>
       <c r="C79" t="n">
-        <v>9.82</v>
+        <v>103.55</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
@@ -1977,10 +1977,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.58</v>
+        <v>-8.220000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>3.58</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="D80" t="s">
         <v>5</v>
@@ -1997,10 +1997,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>96.63</v>
+        <v>86.36</v>
       </c>
       <c r="C81" t="n">
-        <v>96.63</v>
+        <v>86.36</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
@@ -2017,10 +2017,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-12.47</v>
+        <v>-10.15</v>
       </c>
       <c r="C82" t="n">
-        <v>12.47</v>
+        <v>10.15</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
@@ -2037,10 +2037,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-153.45</v>
+        <v>14.95</v>
       </c>
       <c r="C83" t="n">
-        <v>153.45</v>
+        <v>14.95</v>
       </c>
       <c r="D83" t="s">
         <v>5</v>
@@ -2057,10 +2057,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-10.5</v>
+        <v>-61.23</v>
       </c>
       <c r="C84" t="n">
-        <v>10.5</v>
+        <v>61.23</v>
       </c>
       <c r="D84" t="s">
         <v>5</v>
@@ -2077,10 +2077,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>131.51</v>
+        <v>84.88</v>
       </c>
       <c r="C85" t="n">
-        <v>131.51</v>
+        <v>84.88</v>
       </c>
       <c r="D85" t="s">
         <v>5</v>
@@ -2097,10 +2097,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.74</v>
+        <v>25.9</v>
       </c>
       <c r="C86" t="n">
-        <v>6.74</v>
+        <v>25.9</v>
       </c>
       <c r="D86" t="s">
         <v>5</v>
@@ -2117,10 +2117,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8</v>
+        <v>13.55</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8</v>
+        <v>13.55</v>
       </c>
       <c r="D87" t="s">
         <v>5</v>
@@ -2137,10 +2137,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-7.28</v>
+        <v>-10.55</v>
       </c>
       <c r="C88" t="n">
-        <v>7.28</v>
+        <v>10.55</v>
       </c>
       <c r="D88" t="s">
         <v>5</v>
@@ -2157,10 +2157,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>26.33</v>
+        <v>62.09</v>
       </c>
       <c r="C89" t="n">
-        <v>26.33</v>
+        <v>62.09</v>
       </c>
       <c r="D89" t="s">
         <v>5</v>
@@ -2177,10 +2177,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-6.7</v>
+        <v>54.73</v>
       </c>
       <c r="C90" t="n">
-        <v>6.7</v>
+        <v>54.73</v>
       </c>
       <c r="D90" t="s">
         <v>5</v>
@@ -2197,10 +2197,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.52</v>
+        <v>175.02</v>
       </c>
       <c r="C91" t="n">
-        <v>0.52</v>
+        <v>175.02</v>
       </c>
       <c r="D91" t="s">
         <v>5</v>
@@ -2217,10 +2217,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-5.05</v>
+        <v>29.14</v>
       </c>
       <c r="C92" t="n">
-        <v>5.05</v>
+        <v>29.14</v>
       </c>
       <c r="D92" t="s">
         <v>5</v>
@@ -2237,10 +2237,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>69.63</v>
+        <v>170.77</v>
       </c>
       <c r="C93" t="n">
-        <v>69.63</v>
+        <v>170.77</v>
       </c>
       <c r="D93" t="s">
         <v>5</v>
@@ -2257,10 +2257,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>27.2</v>
+        <v>-30.33</v>
       </c>
       <c r="C94" t="n">
-        <v>27.2</v>
+        <v>30.33</v>
       </c>
       <c r="D94" t="s">
         <v>5</v>
@@ -2277,10 +2277,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>116.14</v>
+        <v>141.47</v>
       </c>
       <c r="C95" t="n">
-        <v>116.14</v>
+        <v>141.47</v>
       </c>
       <c r="D95" t="s">
         <v>5</v>
@@ -2297,10 +2297,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-72.89</v>
+        <v>-86.93000000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>72.89</v>
+        <v>86.93000000000001</v>
       </c>
       <c r="D96" t="s">
         <v>5</v>
@@ -2317,10 +2317,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>100.81</v>
+        <v>-7.83</v>
       </c>
       <c r="C97" t="n">
-        <v>100.81</v>
+        <v>7.83</v>
       </c>
       <c r="D97" t="s">
         <v>5</v>
@@ -2337,10 +2337,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-28.26</v>
+        <v>67.75</v>
       </c>
       <c r="C98" t="n">
-        <v>28.26</v>
+        <v>67.75</v>
       </c>
       <c r="D98" t="s">
         <v>5</v>
@@ -2357,10 +2357,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>69.17</v>
+        <v>-113.41</v>
       </c>
       <c r="C99" t="n">
-        <v>69.17</v>
+        <v>113.41</v>
       </c>
       <c r="D99" t="s">
         <v>5</v>
@@ -2377,10 +2377,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>108.59</v>
+        <v>-152.04</v>
       </c>
       <c r="C100" t="n">
-        <v>108.59</v>
+        <v>152.04</v>
       </c>
       <c r="D100" t="s">
         <v>5</v>
@@ -2397,10 +2397,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-10.23</v>
+        <v>4.37</v>
       </c>
       <c r="C101" t="n">
-        <v>10.23</v>
+        <v>4.37</v>
       </c>
       <c r="D101" t="s">
         <v>5</v>
@@ -2417,10 +2417,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-6.86</v>
+        <v>-63.68</v>
       </c>
       <c r="C102" t="n">
-        <v>6.86</v>
+        <v>63.68</v>
       </c>
       <c r="D102" t="s">
         <v>5</v>
@@ -2437,10 +2437,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-10.57</v>
+        <v>-11.47</v>
       </c>
       <c r="C103" t="n">
-        <v>10.57</v>
+        <v>11.47</v>
       </c>
       <c r="D103" t="s">
         <v>5</v>
@@ -2457,10 +2457,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.39</v>
+        <v>-5.38</v>
       </c>
       <c r="C104" t="n">
-        <v>5.39</v>
+        <v>5.38</v>
       </c>
       <c r="D104" t="s">
         <v>5</v>
@@ -2477,10 +2477,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-7.72</v>
+        <v>11.08</v>
       </c>
       <c r="C105" t="n">
-        <v>7.72</v>
+        <v>11.08</v>
       </c>
       <c r="D105" t="s">
         <v>5</v>
@@ -2497,10 +2497,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-1.88</v>
+        <v>-2.37</v>
       </c>
       <c r="C106" t="n">
-        <v>1.88</v>
+        <v>2.37</v>
       </c>
       <c r="D106" t="s">
         <v>5</v>
@@ -2517,10 +2517,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>76.66</v>
+        <v>2.11</v>
       </c>
       <c r="C107" t="n">
-        <v>76.66</v>
+        <v>2.11</v>
       </c>
       <c r="D107" t="s">
         <v>5</v>
@@ -2537,10 +2537,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-3</v>
+        <v>-14.93</v>
       </c>
       <c r="C108" t="n">
-        <v>3</v>
+        <v>14.93</v>
       </c>
       <c r="D108" t="s">
         <v>5</v>
@@ -2557,10 +2557,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-86.27</v>
+        <v>166.55</v>
       </c>
       <c r="C109" t="n">
-        <v>86.27</v>
+        <v>166.55</v>
       </c>
       <c r="D109" t="s">
         <v>5</v>
@@ -2577,10 +2577,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-1.22</v>
+        <v>-161.07</v>
       </c>
       <c r="C110" t="n">
-        <v>1.22</v>
+        <v>161.07</v>
       </c>
       <c r="D110" t="s">
         <v>5</v>
@@ -2597,10 +2597,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9.74</v>
+        <v>18.53</v>
       </c>
       <c r="C111" t="n">
-        <v>9.74</v>
+        <v>18.53</v>
       </c>
       <c r="D111" t="s">
         <v>5</v>
@@ -2617,10 +2617,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5.17</v>
+        <v>-10.13</v>
       </c>
       <c r="C112" t="n">
-        <v>5.17</v>
+        <v>10.13</v>
       </c>
       <c r="D112" t="s">
         <v>5</v>
@@ -2637,10 +2637,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-83.7</v>
+        <v>-167.64</v>
       </c>
       <c r="C113" t="n">
-        <v>83.7</v>
+        <v>167.64</v>
       </c>
       <c r="D113" t="s">
         <v>5</v>
@@ -2657,10 +2657,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9.43</v>
+        <v>149.27</v>
       </c>
       <c r="C114" t="n">
-        <v>9.43</v>
+        <v>149.27</v>
       </c>
       <c r="D114" t="s">
         <v>5</v>
@@ -2677,10 +2677,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.21</v>
+        <v>-25.53</v>
       </c>
       <c r="C115" t="n">
-        <v>1.21</v>
+        <v>25.53</v>
       </c>
       <c r="D115" t="s">
         <v>5</v>
@@ -2697,10 +2697,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>6.7</v>
+        <v>173.97</v>
       </c>
       <c r="C116" t="n">
-        <v>6.7</v>
+        <v>173.97</v>
       </c>
       <c r="D116" t="s">
         <v>5</v>
@@ -2717,10 +2717,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>23.56</v>
+        <v>-2.1</v>
       </c>
       <c r="C117" t="n">
-        <v>23.56</v>
+        <v>2.1</v>
       </c>
       <c r="D117" t="s">
         <v>5</v>
@@ -2737,10 +2737,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-144.76</v>
+        <v>125.9</v>
       </c>
       <c r="C118" t="n">
-        <v>144.76</v>
+        <v>125.9</v>
       </c>
       <c r="D118" t="s">
         <v>5</v>
@@ -2757,10 +2757,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.67</v>
+        <v>-35.2</v>
       </c>
       <c r="C119" t="n">
-        <v>1.67</v>
+        <v>35.2</v>
       </c>
       <c r="D119" t="s">
         <v>5</v>
@@ -2777,10 +2777,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>13.98</v>
+        <v>6.72</v>
       </c>
       <c r="C120" t="n">
-        <v>13.98</v>
+        <v>6.72</v>
       </c>
       <c r="D120" t="s">
         <v>5</v>
@@ -2797,10 +2797,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6.25</v>
+        <v>-0.47</v>
       </c>
       <c r="C121" t="n">
-        <v>6.25</v>
+        <v>0.47</v>
       </c>
       <c r="D121" t="s">
         <v>5</v>
@@ -2817,10 +2817,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-9.6</v>
+        <v>156.28</v>
       </c>
       <c r="C122" t="n">
-        <v>9.6</v>
+        <v>156.28</v>
       </c>
       <c r="D122" t="s">
         <v>5</v>
@@ -2837,10 +2837,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.15</v>
+        <v>91.89</v>
       </c>
       <c r="C123" t="n">
-        <v>0.15</v>
+        <v>91.89</v>
       </c>
       <c r="D123" t="s">
         <v>5</v>
@@ -2857,10 +2857,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>8.15</v>
+        <v>-115.86</v>
       </c>
       <c r="C124" t="n">
-        <v>8.15</v>
+        <v>115.86</v>
       </c>
       <c r="D124" t="s">
         <v>5</v>
@@ -2877,10 +2877,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-8.970000000000001</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>8.970000000000001</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D125" t="s">
         <v>5</v>
@@ -2897,10 +2897,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>6.79</v>
+        <v>-36.31</v>
       </c>
       <c r="C126" t="n">
-        <v>6.79</v>
+        <v>36.31</v>
       </c>
       <c r="D126" t="s">
         <v>5</v>
@@ -2917,10 +2917,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>34.41</v>
+        <v>-4.08</v>
       </c>
       <c r="C127" t="n">
-        <v>34.41</v>
+        <v>4.08</v>
       </c>
       <c r="D127" t="s">
         <v>5</v>
@@ -2937,10 +2937,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-137.94</v>
+        <v>-3.6</v>
       </c>
       <c r="C128" t="n">
-        <v>137.94</v>
+        <v>3.6</v>
       </c>
       <c r="D128" t="s">
         <v>5</v>
@@ -2957,10 +2957,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-18.65</v>
+        <v>147.43</v>
       </c>
       <c r="C129" t="n">
-        <v>18.65</v>
+        <v>147.43</v>
       </c>
       <c r="D129" t="s">
         <v>5</v>
@@ -2977,10 +2977,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>16.27</v>
+        <v>23.58</v>
       </c>
       <c r="C130" t="n">
-        <v>16.27</v>
+        <v>23.58</v>
       </c>
       <c r="D130" t="s">
         <v>5</v>
@@ -2997,10 +2997,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-176.98</v>
+        <v>-10.43</v>
       </c>
       <c r="C131" t="n">
-        <v>176.98</v>
+        <v>10.43</v>
       </c>
       <c r="D131" t="s">
         <v>5</v>
@@ -3017,10 +3017,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-131.89</v>
+        <v>5.39</v>
       </c>
       <c r="C132" t="n">
-        <v>131.89</v>
+        <v>5.39</v>
       </c>
       <c r="D132" t="s">
         <v>5</v>
@@ -3037,10 +3037,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>145.66</v>
+        <v>125.2</v>
       </c>
       <c r="C133" t="n">
-        <v>145.66</v>
+        <v>125.2</v>
       </c>
       <c r="D133" t="s">
         <v>5</v>
@@ -3057,10 +3057,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-25.13</v>
+        <v>-141.25</v>
       </c>
       <c r="C134" t="n">
-        <v>25.13</v>
+        <v>141.25</v>
       </c>
       <c r="D134" t="s">
         <v>5</v>
@@ -3077,10 +3077,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-106.93</v>
+        <v>-20.4</v>
       </c>
       <c r="C135" t="n">
-        <v>106.93</v>
+        <v>20.4</v>
       </c>
       <c r="D135" t="s">
         <v>5</v>
@@ -3097,10 +3097,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>130.96</v>
+        <v>44.28</v>
       </c>
       <c r="C136" t="n">
-        <v>130.96</v>
+        <v>44.28</v>
       </c>
       <c r="D136" t="s">
         <v>5</v>
@@ -3117,10 +3117,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>11.61</v>
+        <v>-7.6</v>
       </c>
       <c r="C137" t="n">
-        <v>11.61</v>
+        <v>7.6</v>
       </c>
       <c r="D137" t="s">
         <v>5</v>
@@ -3137,10 +3137,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>11.55</v>
+        <v>-175.69</v>
       </c>
       <c r="C138" t="n">
-        <v>11.55</v>
+        <v>175.69</v>
       </c>
       <c r="D138" t="s">
         <v>5</v>
@@ -3157,10 +3157,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>163.68</v>
+        <v>163.83</v>
       </c>
       <c r="C139" t="n">
-        <v>163.68</v>
+        <v>163.83</v>
       </c>
       <c r="D139" t="s">
         <v>5</v>
@@ -3177,10 +3177,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.88</v>
+        <v>-28.69</v>
       </c>
       <c r="C140" t="n">
-        <v>0.88</v>
+        <v>28.69</v>
       </c>
       <c r="D140" t="s">
         <v>5</v>
@@ -3197,10 +3197,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-54.65</v>
+        <v>-2.65</v>
       </c>
       <c r="C141" t="n">
-        <v>54.65</v>
+        <v>2.65</v>
       </c>
       <c r="D141" t="s">
         <v>5</v>
@@ -3217,10 +3217,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-79.51000000000001</v>
+        <v>14.2</v>
       </c>
       <c r="C142" t="n">
-        <v>79.51000000000001</v>
+        <v>14.2</v>
       </c>
       <c r="D142" t="s">
         <v>5</v>
@@ -3237,10 +3237,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-14.25</v>
+        <v>-105.07</v>
       </c>
       <c r="C143" t="n">
-        <v>14.25</v>
+        <v>105.07</v>
       </c>
       <c r="D143" t="s">
         <v>5</v>
@@ -3257,10 +3257,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-14.96</v>
+        <v>-4.15</v>
       </c>
       <c r="C144" t="n">
-        <v>14.96</v>
+        <v>4.15</v>
       </c>
       <c r="D144" t="s">
         <v>5</v>
@@ -3277,10 +3277,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-154.15</v>
+        <v>159.42</v>
       </c>
       <c r="C145" t="n">
-        <v>154.15</v>
+        <v>159.42</v>
       </c>
       <c r="D145" t="s">
         <v>5</v>
@@ -3297,10 +3297,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>44.81</v>
+        <v>-12.11</v>
       </c>
       <c r="C146" t="n">
-        <v>44.81</v>
+        <v>12.11</v>
       </c>
       <c r="D146" t="s">
         <v>5</v>
@@ -3317,10 +3317,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-88.43000000000001</v>
+        <v>141.33</v>
       </c>
       <c r="C147" t="n">
-        <v>88.43000000000001</v>
+        <v>141.33</v>
       </c>
       <c r="D147" t="s">
         <v>5</v>
@@ -3337,10 +3337,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-128.04</v>
+        <v>-34.23</v>
       </c>
       <c r="C148" t="n">
-        <v>128.04</v>
+        <v>34.23</v>
       </c>
       <c r="D148" t="s">
         <v>5</v>
@@ -3357,10 +3357,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-14.29</v>
+        <v>49.43</v>
       </c>
       <c r="C149" t="n">
-        <v>14.29</v>
+        <v>49.43</v>
       </c>
       <c r="D149" t="s">
         <v>5</v>
@@ -3377,10 +3377,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>7.41</v>
+        <v>-14.14</v>
       </c>
       <c r="C150" t="n">
-        <v>7.41</v>
+        <v>14.14</v>
       </c>
       <c r="D150" t="s">
         <v>5</v>
@@ -3397,10 +3397,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-19.07</v>
+        <v>-96.92</v>
       </c>
       <c r="C151" t="n">
-        <v>19.07</v>
+        <v>96.92</v>
       </c>
       <c r="D151" t="s">
         <v>5</v>
@@ -3417,10 +3417,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-24.6</v>
+        <v>-12.7</v>
       </c>
       <c r="C152" t="n">
-        <v>24.6</v>
+        <v>12.7</v>
       </c>
       <c r="D152" t="s">
         <v>5</v>
@@ -3437,10 +3437,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.38</v>
+        <v>-20.42</v>
       </c>
       <c r="C153" t="n">
-        <v>4.38</v>
+        <v>20.42</v>
       </c>
       <c r="D153" t="s">
         <v>5</v>
@@ -3457,10 +3457,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-117.79</v>
+        <v>2.2</v>
       </c>
       <c r="C154" t="n">
-        <v>117.79</v>
+        <v>2.2</v>
       </c>
       <c r="D154" t="s">
         <v>5</v>
@@ -3477,10 +3477,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>138.27</v>
+        <v>118.85</v>
       </c>
       <c r="C155" t="n">
-        <v>138.27</v>
+        <v>118.85</v>
       </c>
       <c r="D155" t="s">
         <v>5</v>
@@ -3497,10 +3497,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3.24</v>
+        <v>107.48</v>
       </c>
       <c r="C156" t="n">
-        <v>3.24</v>
+        <v>107.48</v>
       </c>
       <c r="D156" t="s">
         <v>5</v>
@@ -3517,10 +3517,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.94</v>
+        <v>-154.13</v>
       </c>
       <c r="C157" t="n">
-        <v>5.94</v>
+        <v>154.13</v>
       </c>
       <c r="D157" t="s">
         <v>5</v>
@@ -3537,10 +3537,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-3.89</v>
+        <v>-64.64</v>
       </c>
       <c r="C158" t="n">
-        <v>3.89</v>
+        <v>64.64</v>
       </c>
       <c r="D158" t="s">
         <v>5</v>
@@ -3557,10 +3557,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-18.75</v>
+        <v>-140.27</v>
       </c>
       <c r="C159" t="n">
-        <v>18.75</v>
+        <v>140.27</v>
       </c>
       <c r="D159" t="s">
         <v>5</v>
@@ -3577,10 +3577,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-2.39</v>
+        <v>53.29</v>
       </c>
       <c r="C160" t="n">
-        <v>2.39</v>
+        <v>53.29</v>
       </c>
       <c r="D160" t="s">
         <v>5</v>
@@ -3597,10 +3597,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-4.8</v>
+        <v>52.44</v>
       </c>
       <c r="C161" t="n">
-        <v>4.8</v>
+        <v>52.44</v>
       </c>
       <c r="D161" t="s">
         <v>5</v>
@@ -3617,10 +3617,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>6.08</v>
+        <v>11.31</v>
       </c>
       <c r="C162" t="n">
-        <v>6.08</v>
+        <v>11.31</v>
       </c>
       <c r="D162" t="s">
         <v>5</v>
@@ -3637,10 +3637,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>13.86</v>
+        <v>3.79</v>
       </c>
       <c r="C163" t="n">
-        <v>13.86</v>
+        <v>3.79</v>
       </c>
       <c r="D163" t="s">
         <v>5</v>
@@ -3657,10 +3657,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>144.88</v>
+        <v>-172.26</v>
       </c>
       <c r="C164" t="n">
-        <v>144.88</v>
+        <v>172.26</v>
       </c>
       <c r="D164" t="s">
         <v>5</v>
@@ -3677,10 +3677,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>2.42</v>
+        <v>-0.61</v>
       </c>
       <c r="C165" t="n">
-        <v>2.42</v>
+        <v>0.61</v>
       </c>
       <c r="D165" t="s">
         <v>5</v>
@@ -3697,10 +3697,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>149.44</v>
+        <v>168.75</v>
       </c>
       <c r="C166" t="n">
-        <v>149.44</v>
+        <v>168.75</v>
       </c>
       <c r="D166" t="s">
         <v>5</v>
@@ -3717,10 +3717,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-12.23</v>
+        <v>7.47</v>
       </c>
       <c r="C167" t="n">
-        <v>12.23</v>
+        <v>7.47</v>
       </c>
       <c r="D167" t="s">
         <v>5</v>
@@ -3737,10 +3737,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-29.22</v>
+        <v>-15.16</v>
       </c>
       <c r="C168" t="n">
-        <v>29.22</v>
+        <v>15.16</v>
       </c>
       <c r="D168" t="s">
         <v>5</v>
@@ -3757,10 +3757,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.9</v>
+        <v>22.41</v>
       </c>
       <c r="C169" t="n">
-        <v>4.9</v>
+        <v>22.41</v>
       </c>
       <c r="D169" t="s">
         <v>5</v>
@@ -3777,10 +3777,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-154.84</v>
+        <v>0.68</v>
       </c>
       <c r="C170" t="n">
-        <v>154.84</v>
+        <v>0.68</v>
       </c>
       <c r="D170" t="s">
         <v>5</v>
@@ -3797,10 +3797,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-116.59</v>
+        <v>-103.62</v>
       </c>
       <c r="C171" t="n">
-        <v>116.59</v>
+        <v>103.62</v>
       </c>
       <c r="D171" t="s">
         <v>5</v>
@@ -3817,10 +3817,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>11.27</v>
+        <v>14.93</v>
       </c>
       <c r="C172" t="n">
-        <v>11.27</v>
+        <v>14.93</v>
       </c>
       <c r="D172" t="s">
         <v>5</v>
@@ -3837,10 +3837,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>7.36</v>
+        <v>3.91</v>
       </c>
       <c r="C173" t="n">
-        <v>7.36</v>
+        <v>3.91</v>
       </c>
       <c r="D173" t="s">
         <v>5</v>
@@ -3857,10 +3857,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>12.55</v>
+        <v>1.49</v>
       </c>
       <c r="C174" t="n">
-        <v>12.55</v>
+        <v>1.49</v>
       </c>
       <c r="D174" t="s">
         <v>5</v>
@@ -3877,10 +3877,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-86.48999999999999</v>
+        <v>133.46</v>
       </c>
       <c r="C175" t="n">
-        <v>86.48999999999999</v>
+        <v>133.46</v>
       </c>
       <c r="D175" t="s">
         <v>5</v>
@@ -3897,10 +3897,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>7.99</v>
+        <v>14.79</v>
       </c>
       <c r="C176" t="n">
-        <v>7.99</v>
+        <v>14.79</v>
       </c>
       <c r="D176" t="s">
         <v>5</v>
@@ -3917,10 +3917,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-14.62</v>
+        <v>-17.06</v>
       </c>
       <c r="C177" t="n">
-        <v>14.62</v>
+        <v>17.06</v>
       </c>
       <c r="D177" t="s">
         <v>5</v>
@@ -3937,10 +3937,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>18.86</v>
+        <v>26.45</v>
       </c>
       <c r="C178" t="n">
-        <v>18.86</v>
+        <v>26.45</v>
       </c>
       <c r="D178" t="s">
         <v>5</v>
@@ -3957,10 +3957,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.71</v>
+        <v>-9.75</v>
       </c>
       <c r="C179" t="n">
-        <v>0.71</v>
+        <v>9.75</v>
       </c>
       <c r="D179" t="s">
         <v>5</v>
@@ -3977,10 +3977,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-6.17</v>
+        <v>14.51</v>
       </c>
       <c r="C180" t="n">
-        <v>6.17</v>
+        <v>14.51</v>
       </c>
       <c r="D180" t="s">
         <v>5</v>
@@ -3997,10 +3997,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>156.61</v>
+        <v>68.5</v>
       </c>
       <c r="C181" t="n">
-        <v>156.61</v>
+        <v>68.5</v>
       </c>
       <c r="D181" t="s">
         <v>5</v>
@@ -4017,10 +4017,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-7.89</v>
+        <v>-2.96</v>
       </c>
       <c r="C182" t="n">
-        <v>7.89</v>
+        <v>2.96</v>
       </c>
       <c r="D182" t="s">
         <v>5</v>
@@ -4037,10 +4037,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-5.51</v>
+        <v>-0.04</v>
       </c>
       <c r="C183" t="n">
-        <v>5.51</v>
+        <v>0.04</v>
       </c>
       <c r="D183" t="s">
         <v>5</v>
@@ -4057,10 +4057,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-2.68</v>
+        <v>0.27</v>
       </c>
       <c r="C184" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="D184" t="s">
         <v>5</v>
@@ -4077,10 +4077,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-1.66</v>
+        <v>-19.24</v>
       </c>
       <c r="C185" t="n">
-        <v>1.66</v>
+        <v>19.24</v>
       </c>
       <c r="D185" t="s">
         <v>5</v>
@@ -4097,10 +4097,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>3.55</v>
+        <v>-138.93</v>
       </c>
       <c r="C186" t="n">
-        <v>3.55</v>
+        <v>138.93</v>
       </c>
       <c r="D186" t="s">
         <v>5</v>
@@ -4117,10 +4117,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>112.74</v>
+        <v>-12.45</v>
       </c>
       <c r="C187" t="n">
-        <v>112.74</v>
+        <v>12.45</v>
       </c>
       <c r="D187" t="s">
         <v>5</v>
@@ -4137,10 +4137,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-4.32</v>
+        <v>-109.48</v>
       </c>
       <c r="C188" t="n">
-        <v>4.32</v>
+        <v>109.48</v>
       </c>
       <c r="D188" t="s">
         <v>5</v>
@@ -4157,10 +4157,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>9.109999999999999</v>
+        <v>5.89</v>
       </c>
       <c r="C189" t="n">
-        <v>9.109999999999999</v>
+        <v>5.89</v>
       </c>
       <c r="D189" t="s">
         <v>5</v>
@@ -4177,10 +4177,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-169.49</v>
+        <v>-15.78</v>
       </c>
       <c r="C190" t="n">
-        <v>169.49</v>
+        <v>15.78</v>
       </c>
       <c r="D190" t="s">
         <v>5</v>
@@ -4197,10 +4197,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-79.95999999999999</v>
+        <v>-3.96</v>
       </c>
       <c r="C191" t="n">
-        <v>79.95999999999999</v>
+        <v>3.96</v>
       </c>
       <c r="D191" t="s">
         <v>5</v>
@@ -4217,10 +4217,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>80.31</v>
+        <v>44.48</v>
       </c>
       <c r="C192" t="n">
-        <v>80.31</v>
+        <v>44.48</v>
       </c>
       <c r="D192" t="s">
         <v>5</v>
@@ -4237,10 +4237,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-9.140000000000001</v>
+        <v>-50.22</v>
       </c>
       <c r="C193" t="n">
-        <v>9.140000000000001</v>
+        <v>50.22</v>
       </c>
       <c r="D193" t="s">
         <v>5</v>
@@ -4257,10 +4257,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>36.76</v>
+        <v>165.77</v>
       </c>
       <c r="C194" t="n">
-        <v>36.76</v>
+        <v>165.77</v>
       </c>
       <c r="D194" t="s">
         <v>5</v>
@@ -4277,10 +4277,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-1.21</v>
+        <v>11.2</v>
       </c>
       <c r="C195" t="n">
-        <v>1.21</v>
+        <v>11.2</v>
       </c>
       <c r="D195" t="s">
         <v>5</v>
@@ -4297,10 +4297,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-5.24</v>
+        <v>16.93</v>
       </c>
       <c r="C196" t="n">
-        <v>5.24</v>
+        <v>16.93</v>
       </c>
       <c r="D196" t="s">
         <v>5</v>
@@ -4317,10 +4317,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-9.109999999999999</v>
+        <v>-32.58</v>
       </c>
       <c r="C197" t="n">
-        <v>9.109999999999999</v>
+        <v>32.58</v>
       </c>
       <c r="D197" t="s">
         <v>5</v>
@@ -4337,10 +4337,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>25.21</v>
+        <v>-3.3</v>
       </c>
       <c r="C198" t="n">
-        <v>25.21</v>
+        <v>3.3</v>
       </c>
       <c r="D198" t="s">
         <v>5</v>
@@ -4357,10 +4357,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>15.84</v>
+        <v>-42.71</v>
       </c>
       <c r="C199" t="n">
-        <v>15.84</v>
+        <v>42.71</v>
       </c>
       <c r="D199" t="s">
         <v>5</v>
@@ -4377,10 +4377,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>4.47</v>
+        <v>-25.52</v>
       </c>
       <c r="C200" t="n">
-        <v>4.47</v>
+        <v>25.52</v>
       </c>
       <c r="D200" t="s">
         <v>5</v>
@@ -4397,10 +4397,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>6.74</v>
+        <v>-4.55</v>
       </c>
       <c r="C201" t="n">
-        <v>6.74</v>
+        <v>4.55</v>
       </c>
       <c r="D201" t="s">
         <v>5</v>
@@ -4417,10 +4417,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>2.87</v>
+        <v>-174.43</v>
       </c>
       <c r="C202" t="n">
-        <v>2.87</v>
+        <v>174.43</v>
       </c>
       <c r="D202" t="s">
         <v>5</v>
@@ -4437,10 +4437,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>10.84</v>
+        <v>35.77</v>
       </c>
       <c r="C203" t="n">
-        <v>10.84</v>
+        <v>35.77</v>
       </c>
       <c r="D203" t="s">
         <v>5</v>
@@ -4457,10 +4457,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>104.62</v>
+        <v>6.42</v>
       </c>
       <c r="C204" t="n">
-        <v>104.62</v>
+        <v>6.42</v>
       </c>
       <c r="D204" t="s">
         <v>5</v>
@@ -4477,10 +4477,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-5.01</v>
+        <v>8.75</v>
       </c>
       <c r="C205" t="n">
-        <v>5.01</v>
+        <v>8.75</v>
       </c>
       <c r="D205" t="s">
         <v>5</v>
@@ -4497,10 +4497,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>2.4</v>
+        <v>-3.07</v>
       </c>
       <c r="C206" t="n">
-        <v>2.4</v>
+        <v>3.07</v>
       </c>
       <c r="D206" t="s">
         <v>5</v>
@@ -4517,10 +4517,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-9.17</v>
+        <v>124.99</v>
       </c>
       <c r="C207" t="n">
-        <v>9.17</v>
+        <v>124.99</v>
       </c>
       <c r="D207" t="s">
         <v>5</v>
@@ -4537,10 +4537,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-39.2</v>
+        <v>40.92</v>
       </c>
       <c r="C208" t="n">
-        <v>39.2</v>
+        <v>40.92</v>
       </c>
       <c r="D208" t="s">
         <v>5</v>
@@ -4557,10 +4557,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-73.88</v>
+        <v>22.95</v>
       </c>
       <c r="C209" t="n">
-        <v>73.88</v>
+        <v>22.95</v>
       </c>
       <c r="D209" t="s">
         <v>5</v>
@@ -4577,10 +4577,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>5.47</v>
+        <v>-11.46</v>
       </c>
       <c r="C210" t="n">
-        <v>5.47</v>
+        <v>11.46</v>
       </c>
       <c r="D210" t="s">
         <v>5</v>
@@ -4597,10 +4597,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-1.45</v>
+        <v>132.78</v>
       </c>
       <c r="C211" t="n">
-        <v>1.45</v>
+        <v>132.78</v>
       </c>
       <c r="D211" t="s">
         <v>5</v>
@@ -4617,10 +4617,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>28.43</v>
+        <v>94.78</v>
       </c>
       <c r="C212" t="n">
-        <v>28.43</v>
+        <v>94.78</v>
       </c>
       <c r="D212" t="s">
         <v>5</v>
@@ -4637,10 +4637,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-1.09</v>
+        <v>-5.67</v>
       </c>
       <c r="C213" t="n">
-        <v>1.09</v>
+        <v>5.67</v>
       </c>
       <c r="D213" t="s">
         <v>5</v>
@@ -4657,10 +4657,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>-6.15</v>
+        <v>-53.46</v>
       </c>
       <c r="C214" t="n">
-        <v>6.15</v>
+        <v>53.46</v>
       </c>
       <c r="D214" t="s">
         <v>5</v>
@@ -4677,10 +4677,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.46</v>
+        <v>103.6</v>
       </c>
       <c r="C215" t="n">
-        <v>0.46</v>
+        <v>103.6</v>
       </c>
       <c r="D215" t="s">
         <v>5</v>
@@ -4697,10 +4697,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>25.08</v>
+        <v>-110.35</v>
       </c>
       <c r="C216" t="n">
-        <v>25.08</v>
+        <v>110.35</v>
       </c>
       <c r="D216" t="s">
         <v>5</v>
@@ -4717,10 +4717,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>4.32</v>
+        <v>3.17</v>
       </c>
       <c r="C217" t="n">
-        <v>4.32</v>
+        <v>3.17</v>
       </c>
       <c r="D217" t="s">
         <v>5</v>
@@ -4737,10 +4737,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>-3.72</v>
+        <v>-91.51000000000001</v>
       </c>
       <c r="C218" t="n">
-        <v>3.72</v>
+        <v>91.51000000000001</v>
       </c>
       <c r="D218" t="s">
         <v>5</v>
@@ -4757,10 +4757,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>-7.72</v>
+        <v>-80.81</v>
       </c>
       <c r="C219" t="n">
-        <v>7.72</v>
+        <v>80.81</v>
       </c>
       <c r="D219" t="s">
         <v>5</v>
@@ -4777,10 +4777,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1.29</v>
+        <v>-171.4</v>
       </c>
       <c r="C220" t="n">
-        <v>1.29</v>
+        <v>171.4</v>
       </c>
       <c r="D220" t="s">
         <v>5</v>
@@ -4797,10 +4797,10 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>46.21</v>
+        <v>-10.46</v>
       </c>
       <c r="C221" t="n">
-        <v>46.21</v>
+        <v>10.46</v>
       </c>
       <c r="D221" t="s">
         <v>5</v>
@@ -4817,10 +4817,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>99.67</v>
+        <v>-1.71</v>
       </c>
       <c r="C222" t="n">
-        <v>99.67</v>
+        <v>1.71</v>
       </c>
       <c r="D222" t="s">
         <v>5</v>
@@ -4837,10 +4837,10 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>-28.46</v>
+        <v>-2.08</v>
       </c>
       <c r="C223" t="n">
-        <v>28.46</v>
+        <v>2.08</v>
       </c>
       <c r="D223" t="s">
         <v>5</v>
@@ -4857,10 +4857,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>6.48</v>
+        <v>3.37</v>
       </c>
       <c r="C224" t="n">
-        <v>6.48</v>
+        <v>3.37</v>
       </c>
       <c r="D224" t="s">
         <v>5</v>
@@ -4877,10 +4877,10 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>21.52</v>
+        <v>-5.46</v>
       </c>
       <c r="C225" t="n">
-        <v>21.52</v>
+        <v>5.46</v>
       </c>
       <c r="D225" t="s">
         <v>5</v>
@@ -4897,10 +4897,10 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-88.55</v>
+        <v>-176.71</v>
       </c>
       <c r="C226" t="n">
-        <v>88.55</v>
+        <v>176.71</v>
       </c>
       <c r="D226" t="s">
         <v>5</v>
@@ -4917,10 +4917,10 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>11.05</v>
+        <v>-4.45</v>
       </c>
       <c r="C227" t="n">
-        <v>11.05</v>
+        <v>4.45</v>
       </c>
       <c r="D227" t="s">
         <v>5</v>
@@ -4937,10 +4937,10 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>-31.99</v>
+        <v>-7.67</v>
       </c>
       <c r="C228" t="n">
-        <v>31.99</v>
+        <v>7.67</v>
       </c>
       <c r="D228" t="s">
         <v>5</v>
@@ -4957,10 +4957,10 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>114.69</v>
+        <v>16.43</v>
       </c>
       <c r="C229" t="n">
-        <v>114.69</v>
+        <v>16.43</v>
       </c>
       <c r="D229" t="s">
         <v>5</v>
@@ -4977,10 +4977,10 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>6.44</v>
+        <v>-2.93</v>
       </c>
       <c r="C230" t="n">
-        <v>6.44</v>
+        <v>2.93</v>
       </c>
       <c r="D230" t="s">
         <v>5</v>
@@ -4997,10 +4997,10 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>105.18</v>
+        <v>111.05</v>
       </c>
       <c r="C231" t="n">
-        <v>105.18</v>
+        <v>111.05</v>
       </c>
       <c r="D231" t="s">
         <v>5</v>
@@ -5017,10 +5017,10 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0.12</v>
+        <v>3.14</v>
       </c>
       <c r="C232" t="n">
-        <v>0.12</v>
+        <v>3.14</v>
       </c>
       <c r="D232" t="s">
         <v>5</v>
@@ -5037,10 +5037,10 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>8.289999999999999</v>
+        <v>-3.28</v>
       </c>
       <c r="C233" t="n">
-        <v>8.289999999999999</v>
+        <v>3.28</v>
       </c>
       <c r="D233" t="s">
         <v>5</v>
@@ -5057,10 +5057,10 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>151.01</v>
+        <v>-1.84</v>
       </c>
       <c r="C234" t="n">
-        <v>151.01</v>
+        <v>1.84</v>
       </c>
       <c r="D234" t="s">
         <v>5</v>
@@ -5077,10 +5077,10 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>60.4</v>
+        <v>6.05</v>
       </c>
       <c r="C235" t="n">
-        <v>60.4</v>
+        <v>6.05</v>
       </c>
       <c r="D235" t="s">
         <v>5</v>
@@ -5097,10 +5097,10 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>43.46</v>
+        <v>-6.04</v>
       </c>
       <c r="C236" t="n">
-        <v>43.46</v>
+        <v>6.04</v>
       </c>
       <c r="D236" t="s">
         <v>5</v>
@@ -5117,10 +5117,10 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>111.97</v>
+        <v>7.89</v>
       </c>
       <c r="C237" t="n">
-        <v>111.97</v>
+        <v>7.89</v>
       </c>
       <c r="D237" t="s">
         <v>5</v>
@@ -5137,10 +5137,10 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>150.15</v>
+        <v>-52.34</v>
       </c>
       <c r="C238" t="n">
-        <v>150.15</v>
+        <v>52.34</v>
       </c>
       <c r="D238" t="s">
         <v>5</v>
@@ -5157,10 +5157,10 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.24</v>
+        <v>-2.82</v>
       </c>
       <c r="C239" t="n">
-        <v>0.24</v>
+        <v>2.82</v>
       </c>
       <c r="D239" t="s">
         <v>5</v>
@@ -5177,10 +5177,10 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>-1.94</v>
+        <v>8.24</v>
       </c>
       <c r="C240" t="n">
-        <v>1.94</v>
+        <v>8.24</v>
       </c>
       <c r="D240" t="s">
         <v>5</v>
@@ -5197,10 +5197,10 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>15.56</v>
+        <v>-39.19</v>
       </c>
       <c r="C241" t="n">
-        <v>15.56</v>
+        <v>39.19</v>
       </c>
       <c r="D241" t="s">
         <v>5</v>
@@ -5217,10 +5217,10 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>4.17</v>
+        <v>-21.33</v>
       </c>
       <c r="C242" t="n">
-        <v>4.17</v>
+        <v>21.33</v>
       </c>
       <c r="D242" t="s">
         <v>5</v>
@@ -5237,10 +5237,10 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>-3.79</v>
+        <v>73.20999999999999</v>
       </c>
       <c r="C243" t="n">
-        <v>3.79</v>
+        <v>73.20999999999999</v>
       </c>
       <c r="D243" t="s">
         <v>5</v>
@@ -5257,10 +5257,10 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>9.33</v>
+        <v>-15.17</v>
       </c>
       <c r="C244" t="n">
-        <v>9.33</v>
+        <v>15.17</v>
       </c>
       <c r="D244" t="s">
         <v>5</v>
@@ -5277,10 +5277,10 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>5.08</v>
+        <v>-1.03</v>
       </c>
       <c r="C245" t="n">
-        <v>5.08</v>
+        <v>1.03</v>
       </c>
       <c r="D245" t="s">
         <v>5</v>
@@ -5297,10 +5297,10 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>8.33</v>
+        <v>5.65</v>
       </c>
       <c r="C246" t="n">
-        <v>8.33</v>
+        <v>5.65</v>
       </c>
       <c r="D246" t="s">
         <v>5</v>
@@ -5317,10 +5317,10 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-158.26</v>
+        <v>-120.3</v>
       </c>
       <c r="C247" t="n">
-        <v>158.26</v>
+        <v>120.3</v>
       </c>
       <c r="D247" t="s">
         <v>5</v>
@@ -5337,10 +5337,10 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>11.05</v>
+        <v>5.1</v>
       </c>
       <c r="C248" t="n">
-        <v>11.05</v>
+        <v>5.1</v>
       </c>
       <c r="D248" t="s">
         <v>5</v>
@@ -5357,10 +5357,10 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>3.33</v>
+        <v>-5.58</v>
       </c>
       <c r="C249" t="n">
-        <v>3.33</v>
+        <v>5.58</v>
       </c>
       <c r="D249" t="s">
         <v>5</v>
@@ -5377,10 +5377,10 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>10.73</v>
+        <v>-4.3</v>
       </c>
       <c r="C250" t="n">
-        <v>10.73</v>
+        <v>4.3</v>
       </c>
       <c r="D250" t="s">
         <v>5</v>
@@ -5397,10 +5397,10 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>10.26</v>
+        <v>-116.32</v>
       </c>
       <c r="C251" t="n">
-        <v>10.26</v>
+        <v>116.32</v>
       </c>
       <c r="D251" t="s">
         <v>5</v>
@@ -5417,10 +5417,10 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>-98.65000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="C252" t="n">
-        <v>98.65000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="D252" t="s">
         <v>5</v>
@@ -5437,10 +5437,10 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>-9.140000000000001</v>
+        <v>129.34</v>
       </c>
       <c r="C253" t="n">
-        <v>9.140000000000001</v>
+        <v>129.34</v>
       </c>
       <c r="D253" t="s">
         <v>5</v>
@@ -5457,10 +5457,10 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>1.73</v>
+        <v>-69.98999999999999</v>
       </c>
       <c r="C254" t="n">
-        <v>1.73</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="D254" t="s">
         <v>5</v>
@@ -5477,10 +5477,10 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>115.16</v>
+        <v>2.67</v>
       </c>
       <c r="C255" t="n">
-        <v>115.16</v>
+        <v>2.67</v>
       </c>
       <c r="D255" t="s">
         <v>5</v>
@@ -5497,10 +5497,10 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>4.96</v>
+        <v>161.56</v>
       </c>
       <c r="C256" t="n">
-        <v>4.96</v>
+        <v>161.56</v>
       </c>
       <c r="D256" t="s">
         <v>5</v>
@@ -5517,10 +5517,10 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>-29.64</v>
+        <v>8.32</v>
       </c>
       <c r="C257" t="n">
-        <v>29.64</v>
+        <v>8.32</v>
       </c>
       <c r="D257" t="s">
         <v>5</v>
@@ -5537,10 +5537,10 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>-134.38</v>
+        <v>54.66</v>
       </c>
       <c r="C258" t="n">
-        <v>134.38</v>
+        <v>54.66</v>
       </c>
       <c r="D258" t="s">
         <v>5</v>
@@ -5557,10 +5557,10 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>12.26</v>
+        <v>-162.18</v>
       </c>
       <c r="C259" t="n">
-        <v>12.26</v>
+        <v>162.18</v>
       </c>
       <c r="D259" t="s">
         <v>5</v>
@@ -5577,10 +5577,10 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>7.04</v>
+        <v>-175.07</v>
       </c>
       <c r="C260" t="n">
-        <v>7.04</v>
+        <v>175.07</v>
       </c>
       <c r="D260" t="s">
         <v>5</v>
@@ -5597,10 +5597,10 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>-45.26</v>
+        <v>-3.23</v>
       </c>
       <c r="C261" t="n">
-        <v>45.26</v>
+        <v>3.23</v>
       </c>
       <c r="D261" t="s">
         <v>5</v>
@@ -5617,10 +5617,10 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>-1.49</v>
+        <v>-53.64</v>
       </c>
       <c r="C262" t="n">
-        <v>1.49</v>
+        <v>53.64</v>
       </c>
       <c r="D262" t="s">
         <v>5</v>
@@ -5637,10 +5637,10 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>-4.6</v>
+        <v>23</v>
       </c>
       <c r="C263" t="n">
-        <v>4.6</v>
+        <v>23</v>
       </c>
       <c r="D263" t="s">
         <v>5</v>
@@ -5657,10 +5657,10 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>-62.81</v>
+        <v>-5.38</v>
       </c>
       <c r="C264" t="n">
-        <v>62.81</v>
+        <v>5.38</v>
       </c>
       <c r="D264" t="s">
         <v>5</v>
@@ -5677,10 +5677,10 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>-5.07</v>
+        <v>-4.7</v>
       </c>
       <c r="C265" t="n">
-        <v>5.07</v>
+        <v>4.7</v>
       </c>
       <c r="D265" t="s">
         <v>5</v>
@@ -5697,10 +5697,10 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>18.76</v>
+        <v>6.6</v>
       </c>
       <c r="C266" t="n">
-        <v>18.76</v>
+        <v>6.6</v>
       </c>
       <c r="D266" t="s">
         <v>5</v>
@@ -5717,10 +5717,10 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.68</v>
+        <v>3.03</v>
       </c>
       <c r="C267" t="n">
-        <v>0.68</v>
+        <v>3.03</v>
       </c>
       <c r="D267" t="s">
         <v>5</v>
@@ -5737,10 +5737,10 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>-178.28</v>
+        <v>13.96</v>
       </c>
       <c r="C268" t="n">
-        <v>178.28</v>
+        <v>13.96</v>
       </c>
       <c r="D268" t="s">
         <v>5</v>
@@ -5757,10 +5757,10 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>42.94</v>
+        <v>5.24</v>
       </c>
       <c r="C269" t="n">
-        <v>42.94</v>
+        <v>5.24</v>
       </c>
       <c r="D269" t="s">
         <v>5</v>
@@ -5777,10 +5777,10 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>-4.95</v>
+        <v>-18.04</v>
       </c>
       <c r="C270" t="n">
-        <v>4.95</v>
+        <v>18.04</v>
       </c>
       <c r="D270" t="s">
         <v>5</v>
@@ -5797,10 +5797,10 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>10.57</v>
+        <v>10.82</v>
       </c>
       <c r="C271" t="n">
-        <v>10.57</v>
+        <v>10.82</v>
       </c>
       <c r="D271" t="s">
         <v>5</v>
@@ -5817,10 +5817,10 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>-4.96</v>
+        <v>-52.97</v>
       </c>
       <c r="C272" t="n">
-        <v>4.96</v>
+        <v>52.97</v>
       </c>
       <c r="D272" t="s">
         <v>5</v>
@@ -5837,10 +5837,10 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>-2.23</v>
+        <v>-69.39</v>
       </c>
       <c r="C273" t="n">
-        <v>2.23</v>
+        <v>69.39</v>
       </c>
       <c r="D273" t="s">
         <v>5</v>
@@ -5857,10 +5857,10 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>4.46</v>
+        <v>3.87</v>
       </c>
       <c r="C274" t="n">
-        <v>4.46</v>
+        <v>3.87</v>
       </c>
       <c r="D274" t="s">
         <v>5</v>
@@ -5877,10 +5877,10 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>-13.17</v>
+        <v>-34.09</v>
       </c>
       <c r="C275" t="n">
-        <v>13.17</v>
+        <v>34.09</v>
       </c>
       <c r="D275" t="s">
         <v>5</v>
@@ -5897,10 +5897,10 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>-109.42</v>
+        <v>-14.09</v>
       </c>
       <c r="C276" t="n">
-        <v>109.42</v>
+        <v>14.09</v>
       </c>
       <c r="D276" t="s">
         <v>5</v>
@@ -5917,10 +5917,10 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>-4.29</v>
+        <v>-90.76000000000001</v>
       </c>
       <c r="C277" t="n">
-        <v>4.29</v>
+        <v>90.76000000000001</v>
       </c>
       <c r="D277" t="s">
         <v>5</v>
@@ -5937,10 +5937,10 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>43.94</v>
+        <v>0.09</v>
       </c>
       <c r="C278" t="n">
-        <v>43.94</v>
+        <v>0.09</v>
       </c>
       <c r="D278" t="s">
         <v>5</v>
@@ -5957,10 +5957,10 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>2.46</v>
+        <v>-2.18</v>
       </c>
       <c r="C279" t="n">
-        <v>2.46</v>
+        <v>2.18</v>
       </c>
       <c r="D279" t="s">
         <v>5</v>
@@ -5977,10 +5977,10 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>-7.79</v>
+        <v>-152.94</v>
       </c>
       <c r="C280" t="n">
-        <v>7.79</v>
+        <v>152.94</v>
       </c>
       <c r="D280" t="s">
         <v>5</v>
@@ -5997,10 +5997,10 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>16.1</v>
+        <v>106.03</v>
       </c>
       <c r="C281" t="n">
-        <v>16.1</v>
+        <v>106.03</v>
       </c>
       <c r="D281" t="s">
         <v>5</v>
@@ -6017,10 +6017,10 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>2.4</v>
+        <v>13.73</v>
       </c>
       <c r="C282" t="n">
-        <v>2.4</v>
+        <v>13.73</v>
       </c>
       <c r="D282" t="s">
         <v>5</v>
@@ -6037,10 +6037,10 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>-104.42</v>
+        <v>-25.19</v>
       </c>
       <c r="C283" t="n">
-        <v>104.42</v>
+        <v>25.19</v>
       </c>
       <c r="D283" t="s">
         <v>5</v>
@@ -6057,10 +6057,10 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>-49.04</v>
+        <v>176.56</v>
       </c>
       <c r="C284" t="n">
-        <v>49.04</v>
+        <v>176.56</v>
       </c>
       <c r="D284" t="s">
         <v>5</v>
@@ -6077,10 +6077,10 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>-28.25</v>
+        <v>-170.82</v>
       </c>
       <c r="C285" t="n">
-        <v>28.25</v>
+        <v>170.82</v>
       </c>
       <c r="D285" t="s">
         <v>5</v>
@@ -6097,10 +6097,10 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>-135.63</v>
+        <v>-9.92</v>
       </c>
       <c r="C286" t="n">
-        <v>135.63</v>
+        <v>9.92</v>
       </c>
       <c r="D286" t="s">
         <v>5</v>
@@ -6117,10 +6117,10 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>-148.15</v>
+        <v>-4.3</v>
       </c>
       <c r="C287" t="n">
-        <v>148.15</v>
+        <v>4.3</v>
       </c>
       <c r="D287" t="s">
         <v>5</v>
@@ -6137,10 +6137,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>8.16</v>
+        <v>-7.48</v>
       </c>
       <c r="C288" t="n">
-        <v>8.16</v>
+        <v>7.48</v>
       </c>
       <c r="D288" t="s">
         <v>5</v>
@@ -6157,10 +6157,10 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>-68.14</v>
+        <v>-0.95</v>
       </c>
       <c r="C289" t="n">
-        <v>68.14</v>
+        <v>0.95</v>
       </c>
       <c r="D289" t="s">
         <v>5</v>
@@ -6177,10 +6177,10 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>-9.9</v>
+        <v>-7.79</v>
       </c>
       <c r="C290" t="n">
-        <v>9.9</v>
+        <v>7.79</v>
       </c>
       <c r="D290" t="s">
         <v>5</v>
@@ -6197,10 +6197,10 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>-64.54000000000001</v>
+        <v>46.19</v>
       </c>
       <c r="C291" t="n">
-        <v>64.54000000000001</v>
+        <v>46.19</v>
       </c>
       <c r="D291" t="s">
         <v>5</v>
@@ -6217,10 +6217,10 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>93.56999999999999</v>
+        <v>-3.18</v>
       </c>
       <c r="C292" t="n">
-        <v>93.56999999999999</v>
+        <v>3.18</v>
       </c>
       <c r="D292" t="s">
         <v>5</v>
@@ -6237,10 +6237,10 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>154.03</v>
+        <v>-121.78</v>
       </c>
       <c r="C293" t="n">
-        <v>154.03</v>
+        <v>121.78</v>
       </c>
       <c r="D293" t="s">
         <v>5</v>
@@ -6257,10 +6257,10 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>7.2</v>
+        <v>-77.31</v>
       </c>
       <c r="C294" t="n">
-        <v>7.2</v>
+        <v>77.31</v>
       </c>
       <c r="D294" t="s">
         <v>5</v>
@@ -6277,10 +6277,10 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>-43.51</v>
+        <v>-6</v>
       </c>
       <c r="C295" t="n">
-        <v>43.51</v>
+        <v>6</v>
       </c>
       <c r="D295" t="s">
         <v>5</v>
@@ -6297,10 +6297,10 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>164</v>
+        <v>-62.76</v>
       </c>
       <c r="C296" t="n">
-        <v>164</v>
+        <v>62.76</v>
       </c>
       <c r="D296" t="s">
         <v>5</v>
@@ -6317,10 +6317,10 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>-79.40000000000001</v>
+        <v>68.68000000000001</v>
       </c>
       <c r="C297" t="n">
-        <v>79.40000000000001</v>
+        <v>68.68000000000001</v>
       </c>
       <c r="D297" t="s">
         <v>5</v>
@@ -6337,10 +6337,10 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>-56.18</v>
+        <v>-6.13</v>
       </c>
       <c r="C298" t="n">
-        <v>56.18</v>
+        <v>6.13</v>
       </c>
       <c r="D298" t="s">
         <v>5</v>
@@ -6357,10 +6357,10 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>46.42</v>
+        <v>-71.53</v>
       </c>
       <c r="C299" t="n">
-        <v>46.42</v>
+        <v>71.53</v>
       </c>
       <c r="D299" t="s">
         <v>5</v>
@@ -6377,10 +6377,10 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>40.08</v>
+        <v>163.13</v>
       </c>
       <c r="C300" t="n">
-        <v>40.08</v>
+        <v>163.13</v>
       </c>
       <c r="D300" t="s">
         <v>5</v>
@@ -6397,10 +6397,10 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>-3.88</v>
+        <v>-113.51</v>
       </c>
       <c r="C301" t="n">
-        <v>3.88</v>
+        <v>113.51</v>
       </c>
       <c r="D301" t="s">
         <v>5</v>
@@ -6417,10 +6417,10 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>0.89</v>
+        <v>-2.64</v>
       </c>
       <c r="C302" t="n">
-        <v>0.89</v>
+        <v>2.64</v>
       </c>
       <c r="D302" t="s">
         <v>5</v>
@@ -6437,10 +6437,10 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>-171.49</v>
+        <v>-30.96</v>
       </c>
       <c r="C303" t="n">
-        <v>171.49</v>
+        <v>30.96</v>
       </c>
       <c r="D303" t="s">
         <v>5</v>
@@ -6457,10 +6457,10 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>0.91</v>
+        <v>-17.69</v>
       </c>
       <c r="C304" t="n">
-        <v>0.91</v>
+        <v>17.69</v>
       </c>
       <c r="D304" t="s">
         <v>5</v>
@@ -6477,10 +6477,10 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>-22.35</v>
+        <v>68.47</v>
       </c>
       <c r="C305" t="n">
-        <v>22.35</v>
+        <v>68.47</v>
       </c>
       <c r="D305" t="s">
         <v>5</v>
@@ -6497,10 +6497,10 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>6.65</v>
+        <v>100.17</v>
       </c>
       <c r="C306" t="n">
-        <v>6.65</v>
+        <v>100.17</v>
       </c>
       <c r="D306" t="s">
         <v>5</v>
@@ -6517,10 +6517,10 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>-21.79</v>
+        <v>-65.84</v>
       </c>
       <c r="C307" t="n">
-        <v>21.79</v>
+        <v>65.84</v>
       </c>
       <c r="D307" t="s">
         <v>5</v>
@@ -6537,10 +6537,10 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>-12.86</v>
+        <v>-18.05</v>
       </c>
       <c r="C308" t="n">
-        <v>12.86</v>
+        <v>18.05</v>
       </c>
       <c r="D308" t="s">
         <v>5</v>
@@ -6557,10 +6557,10 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>-150.75</v>
+        <v>-5.84</v>
       </c>
       <c r="C309" t="n">
-        <v>150.75</v>
+        <v>5.84</v>
       </c>
       <c r="D309" t="s">
         <v>5</v>
@@ -6577,10 +6577,10 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.54</v>
+        <v>29.45</v>
       </c>
       <c r="C310" t="n">
-        <v>0.54</v>
+        <v>29.45</v>
       </c>
       <c r="D310" t="s">
         <v>5</v>
@@ -6597,10 +6597,10 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>103.2</v>
+        <v>-74.45999999999999</v>
       </c>
       <c r="C311" t="n">
-        <v>103.2</v>
+        <v>74.45999999999999</v>
       </c>
       <c r="D311" t="s">
         <v>5</v>
@@ -6617,10 +6617,10 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>0.47</v>
+        <v>54.81</v>
       </c>
       <c r="C312" t="n">
-        <v>0.47</v>
+        <v>54.81</v>
       </c>
       <c r="D312" t="s">
         <v>5</v>
@@ -6637,10 +6637,10 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>119.94</v>
+        <v>175.35</v>
       </c>
       <c r="C313" t="n">
-        <v>119.94</v>
+        <v>175.35</v>
       </c>
       <c r="D313" t="s">
         <v>5</v>
@@ -6657,10 +6657,10 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>-6.33</v>
+        <v>-4.39</v>
       </c>
       <c r="C314" t="n">
-        <v>6.33</v>
+        <v>4.39</v>
       </c>
       <c r="D314" t="s">
         <v>5</v>
@@ -6677,10 +6677,10 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>-28.24</v>
+        <v>63.02</v>
       </c>
       <c r="C315" t="n">
-        <v>28.24</v>
+        <v>63.02</v>
       </c>
       <c r="D315" t="s">
         <v>5</v>
@@ -6697,10 +6697,10 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>-64.44</v>
+        <v>1.47</v>
       </c>
       <c r="C316" t="n">
-        <v>64.44</v>
+        <v>1.47</v>
       </c>
       <c r="D316" t="s">
         <v>5</v>
@@ -6717,10 +6717,10 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>-1.31</v>
+        <v>37.66</v>
       </c>
       <c r="C317" t="n">
-        <v>1.31</v>
+        <v>37.66</v>
       </c>
       <c r="D317" t="s">
         <v>5</v>
@@ -6737,10 +6737,10 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>0.71</v>
+        <v>-3.59</v>
       </c>
       <c r="C318" t="n">
-        <v>0.71</v>
+        <v>3.59</v>
       </c>
       <c r="D318" t="s">
         <v>5</v>
@@ -6757,10 +6757,10 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>4.83</v>
+        <v>-142.72</v>
       </c>
       <c r="C319" t="n">
-        <v>4.83</v>
+        <v>142.72</v>
       </c>
       <c r="D319" t="s">
         <v>5</v>
@@ -6777,10 +6777,10 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>6.72</v>
+        <v>-128.53</v>
       </c>
       <c r="C320" t="n">
-        <v>6.72</v>
+        <v>128.53</v>
       </c>
       <c r="D320" t="s">
         <v>5</v>
@@ -6797,10 +6797,10 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.24</v>
+        <v>-10.93</v>
       </c>
       <c r="C321" t="n">
-        <v>0.24</v>
+        <v>10.93</v>
       </c>
       <c r="D321" t="s">
         <v>5</v>
@@ -6817,10 +6817,10 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>-1.3</v>
+        <v>5.63</v>
       </c>
       <c r="C322" t="n">
-        <v>1.3</v>
+        <v>5.63</v>
       </c>
       <c r="D322" t="s">
         <v>5</v>
@@ -6837,10 +6837,10 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>13.88</v>
+        <v>3</v>
       </c>
       <c r="C323" t="n">
-        <v>13.88</v>
+        <v>3</v>
       </c>
       <c r="D323" t="s">
         <v>5</v>
@@ -6857,10 +6857,10 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>1.3</v>
+        <v>135.56</v>
       </c>
       <c r="C324" t="n">
-        <v>1.3</v>
+        <v>135.56</v>
       </c>
       <c r="D324" t="s">
         <v>5</v>
@@ -6877,10 +6877,10 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>135.58</v>
+        <v>0.67</v>
       </c>
       <c r="C325" t="n">
-        <v>135.58</v>
+        <v>0.67</v>
       </c>
       <c r="D325" t="s">
         <v>5</v>
@@ -6897,10 +6897,10 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>174.88</v>
+        <v>-0.79</v>
       </c>
       <c r="C326" t="n">
-        <v>174.88</v>
+        <v>0.79</v>
       </c>
       <c r="D326" t="s">
         <v>5</v>
@@ -6917,10 +6917,10 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>-39.23</v>
+        <v>-62.17</v>
       </c>
       <c r="C327" t="n">
-        <v>39.23</v>
+        <v>62.17</v>
       </c>
       <c r="D327" t="s">
         <v>5</v>
@@ -6937,10 +6937,10 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>44.92</v>
+        <v>-145.5</v>
       </c>
       <c r="C328" t="n">
-        <v>44.92</v>
+        <v>145.5</v>
       </c>
       <c r="D328" t="s">
         <v>5</v>
@@ -6957,10 +6957,10 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>-176.83</v>
+        <v>-61.69</v>
       </c>
       <c r="C329" t="n">
-        <v>176.83</v>
+        <v>61.69</v>
       </c>
       <c r="D329" t="s">
         <v>5</v>
@@ -6977,10 +6977,10 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>-5.97</v>
+        <v>136.32</v>
       </c>
       <c r="C330" t="n">
-        <v>5.97</v>
+        <v>136.32</v>
       </c>
       <c r="D330" t="s">
         <v>5</v>
@@ -6997,10 +6997,10 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>-47.24</v>
+        <v>-116.4</v>
       </c>
       <c r="C331" t="n">
-        <v>47.24</v>
+        <v>116.4</v>
       </c>
       <c r="D331" t="s">
         <v>5</v>
@@ -7017,10 +7017,10 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>-71.95999999999999</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C332" t="n">
-        <v>71.95999999999999</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="D332" t="s">
         <v>5</v>
@@ -7037,10 +7037,10 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>-19.49</v>
+        <v>-10.94</v>
       </c>
       <c r="C333" t="n">
-        <v>19.49</v>
+        <v>10.94</v>
       </c>
       <c r="D333" t="s">
         <v>5</v>
@@ -7057,10 +7057,10 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>4.02</v>
+        <v>131.38</v>
       </c>
       <c r="C334" t="n">
-        <v>4.02</v>
+        <v>131.38</v>
       </c>
       <c r="D334" t="s">
         <v>5</v>
@@ -7077,10 +7077,10 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>-9.42</v>
+        <v>-13.29</v>
       </c>
       <c r="C335" t="n">
-        <v>9.42</v>
+        <v>13.29</v>
       </c>
       <c r="D335" t="s">
         <v>5</v>
@@ -7097,10 +7097,10 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>160.92</v>
+        <v>-2.77</v>
       </c>
       <c r="C336" t="n">
-        <v>160.92</v>
+        <v>2.77</v>
       </c>
       <c r="D336" t="s">
         <v>5</v>
@@ -7117,10 +7117,10 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>56.16</v>
+        <v>5.36</v>
       </c>
       <c r="C337" t="n">
-        <v>56.16</v>
+        <v>5.36</v>
       </c>
       <c r="D337" t="s">
         <v>5</v>
@@ -7137,10 +7137,10 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>-42.25</v>
+        <v>-7.29</v>
       </c>
       <c r="C338" t="n">
-        <v>42.25</v>
+        <v>7.29</v>
       </c>
       <c r="D338" t="s">
         <v>5</v>
@@ -7157,10 +7157,10 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>-20.42</v>
+        <v>158.75</v>
       </c>
       <c r="C339" t="n">
-        <v>20.42</v>
+        <v>158.75</v>
       </c>
       <c r="D339" t="s">
         <v>5</v>
@@ -7177,10 +7177,10 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>73.53</v>
+        <v>-2.26</v>
       </c>
       <c r="C340" t="n">
-        <v>73.53</v>
+        <v>2.26</v>
       </c>
       <c r="D340" t="s">
         <v>5</v>
@@ -7197,10 +7197,10 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>0.84</v>
+        <v>-2.78</v>
       </c>
       <c r="C341" t="n">
-        <v>0.84</v>
+        <v>2.78</v>
       </c>
       <c r="D341" t="s">
         <v>5</v>
@@ -7217,10 +7217,10 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>-2.82</v>
+        <v>135.24</v>
       </c>
       <c r="C342" t="n">
-        <v>2.82</v>
+        <v>135.24</v>
       </c>
       <c r="D342" t="s">
         <v>5</v>
@@ -7237,10 +7237,10 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>12.98</v>
+        <v>-1.78</v>
       </c>
       <c r="C343" t="n">
-        <v>12.98</v>
+        <v>1.78</v>
       </c>
       <c r="D343" t="s">
         <v>5</v>
@@ -7257,10 +7257,10 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>-1.47</v>
+        <v>1.7</v>
       </c>
       <c r="C344" t="n">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="D344" t="s">
         <v>5</v>
@@ -7277,10 +7277,10 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>-78.03</v>
+        <v>-169.12</v>
       </c>
       <c r="C345" t="n">
-        <v>78.03</v>
+        <v>169.12</v>
       </c>
       <c r="D345" t="s">
         <v>5</v>
@@ -7297,10 +7297,10 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>13.11</v>
+        <v>13.74</v>
       </c>
       <c r="C346" t="n">
-        <v>13.11</v>
+        <v>13.74</v>
       </c>
       <c r="D346" t="s">
         <v>5</v>
@@ -7317,10 +7317,10 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>-172.84</v>
+        <v>6.5</v>
       </c>
       <c r="C347" t="n">
-        <v>172.84</v>
+        <v>6.5</v>
       </c>
       <c r="D347" t="s">
         <v>5</v>
@@ -7337,10 +7337,10 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>-14.54</v>
+        <v>112.8</v>
       </c>
       <c r="C348" t="n">
-        <v>14.54</v>
+        <v>112.8</v>
       </c>
       <c r="D348" t="s">
         <v>5</v>
@@ -7357,10 +7357,10 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>-18.16</v>
+        <v>156.4</v>
       </c>
       <c r="C349" t="n">
-        <v>18.16</v>
+        <v>156.4</v>
       </c>
       <c r="D349" t="s">
         <v>5</v>
@@ -7377,10 +7377,10 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>-60.04</v>
+        <v>5.55</v>
       </c>
       <c r="C350" t="n">
-        <v>60.04</v>
+        <v>5.55</v>
       </c>
       <c r="D350" t="s">
         <v>5</v>
@@ -7397,10 +7397,10 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>-79.13</v>
+        <v>-131.71</v>
       </c>
       <c r="C351" t="n">
-        <v>79.13</v>
+        <v>131.71</v>
       </c>
       <c r="D351" t="s">
         <v>5</v>
@@ -7417,10 +7417,10 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>-71.72</v>
+        <v>73.23999999999999</v>
       </c>
       <c r="C352" t="n">
-        <v>71.72</v>
+        <v>73.23999999999999</v>
       </c>
       <c r="D352" t="s">
         <v>5</v>
@@ -7437,10 +7437,10 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>-2.07</v>
+        <v>148.4</v>
       </c>
       <c r="C353" t="n">
-        <v>2.07</v>
+        <v>148.4</v>
       </c>
       <c r="D353" t="s">
         <v>5</v>
@@ -7457,10 +7457,10 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>-11.2</v>
+        <v>45.95</v>
       </c>
       <c r="C354" t="n">
-        <v>11.2</v>
+        <v>45.95</v>
       </c>
       <c r="D354" t="s">
         <v>5</v>
@@ -7477,10 +7477,10 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>-26.34</v>
+        <v>-14.12</v>
       </c>
       <c r="C355" t="n">
-        <v>26.34</v>
+        <v>14.12</v>
       </c>
       <c r="D355" t="s">
         <v>5</v>
@@ -7497,10 +7497,10 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>-13.27</v>
+        <v>-9.52</v>
       </c>
       <c r="C356" t="n">
-        <v>13.27</v>
+        <v>9.52</v>
       </c>
       <c r="D356" t="s">
         <v>5</v>
@@ -7517,10 +7517,10 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>12.52</v>
+        <v>112.43</v>
       </c>
       <c r="C357" t="n">
-        <v>12.52</v>
+        <v>112.43</v>
       </c>
       <c r="D357" t="s">
         <v>5</v>
@@ -7537,10 +7537,10 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>167.9</v>
+        <v>-0.36</v>
       </c>
       <c r="C358" t="n">
-        <v>167.9</v>
+        <v>0.36</v>
       </c>
       <c r="D358" t="s">
         <v>5</v>
@@ -7557,10 +7557,10 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>1.66</v>
+        <v>-162.15</v>
       </c>
       <c r="C359" t="n">
-        <v>1.66</v>
+        <v>162.15</v>
       </c>
       <c r="D359" t="s">
         <v>5</v>
@@ -7577,10 +7577,10 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>-140.94</v>
+        <v>68.88</v>
       </c>
       <c r="C360" t="n">
-        <v>140.94</v>
+        <v>68.88</v>
       </c>
       <c r="D360" t="s">
         <v>5</v>
@@ -7597,10 +7597,10 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>-1.38</v>
+        <v>-107.89</v>
       </c>
       <c r="C361" t="n">
-        <v>1.38</v>
+        <v>107.89</v>
       </c>
       <c r="D361" t="s">
         <v>5</v>
@@ -7617,10 +7617,10 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>-104.74</v>
+        <v>82.09</v>
       </c>
       <c r="C362" t="n">
-        <v>104.74</v>
+        <v>82.09</v>
       </c>
       <c r="D362" t="s">
         <v>5</v>
@@ -7637,10 +7637,10 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>41.51</v>
+        <v>51.6</v>
       </c>
       <c r="C363" t="n">
-        <v>41.51</v>
+        <v>51.6</v>
       </c>
       <c r="D363" t="s">
         <v>5</v>
@@ -7657,10 +7657,10 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>-98.31</v>
+        <v>-4.56</v>
       </c>
       <c r="C364" t="n">
-        <v>98.31</v>
+        <v>4.56</v>
       </c>
       <c r="D364" t="s">
         <v>5</v>
@@ -7677,10 +7677,10 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>135.56</v>
+        <v>-11.84</v>
       </c>
       <c r="C365" t="n">
-        <v>135.56</v>
+        <v>11.84</v>
       </c>
       <c r="D365" t="s">
         <v>5</v>
@@ -7697,10 +7697,10 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>-1.85</v>
+        <v>-20.9</v>
       </c>
       <c r="C366" t="n">
-        <v>1.85</v>
+        <v>20.9</v>
       </c>
       <c r="D366" t="s">
         <v>5</v>
@@ -7717,10 +7717,10 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>-97.22</v>
+        <v>76.94</v>
       </c>
       <c r="C367" t="n">
-        <v>97.22</v>
+        <v>76.94</v>
       </c>
       <c r="D367" t="s">
         <v>5</v>
@@ -7737,10 +7737,10 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>169.33</v>
+        <v>11.64</v>
       </c>
       <c r="C368" t="n">
-        <v>169.33</v>
+        <v>11.64</v>
       </c>
       <c r="D368" t="s">
         <v>5</v>
@@ -7757,10 +7757,10 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>11.57</v>
+        <v>-64</v>
       </c>
       <c r="C369" t="n">
-        <v>11.57</v>
+        <v>64</v>
       </c>
       <c r="D369" t="s">
         <v>5</v>
@@ -7777,10 +7777,10 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>-150.43</v>
+        <v>-112.95</v>
       </c>
       <c r="C370" t="n">
-        <v>150.43</v>
+        <v>112.95</v>
       </c>
       <c r="D370" t="s">
         <v>5</v>
@@ -7797,10 +7797,10 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>-1.22</v>
+        <v>5.55</v>
       </c>
       <c r="C371" t="n">
-        <v>1.22</v>
+        <v>5.55</v>
       </c>
       <c r="D371" t="s">
         <v>5</v>
@@ -7817,10 +7817,10 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>124.54</v>
+        <v>-5.64</v>
       </c>
       <c r="C372" t="n">
-        <v>124.54</v>
+        <v>5.64</v>
       </c>
       <c r="D372" t="s">
         <v>5</v>
@@ -7837,10 +7837,10 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>-134.06</v>
+        <v>-4</v>
       </c>
       <c r="C373" t="n">
-        <v>134.06</v>
+        <v>4</v>
       </c>
       <c r="D373" t="s">
         <v>5</v>
@@ -7857,10 +7857,10 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>-13.53</v>
+        <v>80.65000000000001</v>
       </c>
       <c r="C374" t="n">
-        <v>13.53</v>
+        <v>80.65000000000001</v>
       </c>
       <c r="D374" t="s">
         <v>5</v>
@@ -7877,10 +7877,10 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>-1.05</v>
+        <v>-84.41</v>
       </c>
       <c r="C375" t="n">
-        <v>1.05</v>
+        <v>84.41</v>
       </c>
       <c r="D375" t="s">
         <v>5</v>
@@ -7897,10 +7897,10 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>-150.63</v>
+        <v>164.6</v>
       </c>
       <c r="C376" t="n">
-        <v>150.63</v>
+        <v>164.6</v>
       </c>
       <c r="D376" t="s">
         <v>5</v>
@@ -7917,10 +7917,10 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>1.86</v>
+        <v>23.4</v>
       </c>
       <c r="C377" t="n">
-        <v>1.86</v>
+        <v>23.4</v>
       </c>
       <c r="D377" t="s">
         <v>5</v>
@@ -7937,10 +7937,10 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>-18.63</v>
+        <v>-10.02</v>
       </c>
       <c r="C378" t="n">
-        <v>18.63</v>
+        <v>10.02</v>
       </c>
       <c r="D378" t="s">
         <v>5</v>
@@ -7957,10 +7957,10 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>-40.7</v>
+        <v>-3.12</v>
       </c>
       <c r="C379" t="n">
-        <v>40.7</v>
+        <v>3.12</v>
       </c>
       <c r="D379" t="s">
         <v>5</v>
@@ -7977,10 +7977,10 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>2.93</v>
+        <v>-9.710000000000001</v>
       </c>
       <c r="C380" t="n">
-        <v>2.93</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="D380" t="s">
         <v>5</v>
@@ -7997,10 +7997,10 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>-4.96</v>
+        <v>-5.22</v>
       </c>
       <c r="C381" t="n">
-        <v>4.96</v>
+        <v>5.22</v>
       </c>
       <c r="D381" t="s">
         <v>5</v>
@@ -8017,10 +8017,10 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>-91.11</v>
+        <v>-7.07</v>
       </c>
       <c r="C382" t="n">
-        <v>91.11</v>
+        <v>7.07</v>
       </c>
       <c r="D382" t="s">
         <v>5</v>
@@ -8037,10 +8037,10 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>17.48</v>
+        <v>-2.28</v>
       </c>
       <c r="C383" t="n">
-        <v>17.48</v>
+        <v>2.28</v>
       </c>
       <c r="D383" t="s">
         <v>5</v>
@@ -8057,10 +8057,10 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>-170.92</v>
+        <v>2.32</v>
       </c>
       <c r="C384" t="n">
-        <v>170.92</v>
+        <v>2.32</v>
       </c>
       <c r="D384" t="s">
         <v>5</v>
@@ -8077,10 +8077,10 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>-134.14</v>
+        <v>-0.85</v>
       </c>
       <c r="C385" t="n">
-        <v>134.14</v>
+        <v>0.85</v>
       </c>
       <c r="D385" t="s">
         <v>5</v>
@@ -8097,10 +8097,10 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>0.45</v>
+        <v>2.53</v>
       </c>
       <c r="C386" t="n">
-        <v>0.45</v>
+        <v>2.53</v>
       </c>
       <c r="D386" t="s">
         <v>5</v>
@@ -8117,10 +8117,10 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>179.71</v>
+        <v>156.46</v>
       </c>
       <c r="C387" t="n">
-        <v>179.71</v>
+        <v>156.46</v>
       </c>
       <c r="D387" t="s">
         <v>5</v>
@@ -8137,10 +8137,10 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>7.8</v>
+        <v>18.93</v>
       </c>
       <c r="C388" t="n">
-        <v>7.8</v>
+        <v>18.93</v>
       </c>
       <c r="D388" t="s">
         <v>5</v>
@@ -8157,10 +8157,10 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>78.65000000000001</v>
+        <v>-1.12</v>
       </c>
       <c r="C389" t="n">
-        <v>78.65000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="D389" t="s">
         <v>5</v>
@@ -8177,10 +8177,10 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>-2.97</v>
+        <v>0.06</v>
       </c>
       <c r="C390" t="n">
-        <v>2.97</v>
+        <v>0.06</v>
       </c>
       <c r="D390" t="s">
         <v>5</v>
@@ -8197,10 +8197,10 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>53.97</v>
+        <v>-69.31</v>
       </c>
       <c r="C391" t="n">
-        <v>53.97</v>
+        <v>69.31</v>
       </c>
       <c r="D391" t="s">
         <v>5</v>
@@ -8217,10 +8217,10 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>3.92</v>
+        <v>-45.9</v>
       </c>
       <c r="C392" t="n">
-        <v>3.92</v>
+        <v>45.9</v>
       </c>
       <c r="D392" t="s">
         <v>5</v>
@@ -8237,10 +8237,10 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>0.14</v>
+        <v>-1.35</v>
       </c>
       <c r="C393" t="n">
-        <v>0.14</v>
+        <v>1.35</v>
       </c>
       <c r="D393" t="s">
         <v>5</v>
@@ -8257,10 +8257,10 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>104.17</v>
+        <v>-76.34999999999999</v>
       </c>
       <c r="C394" t="n">
-        <v>104.17</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="D394" t="s">
         <v>5</v>
@@ -8277,10 +8277,10 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.05</v>
+        <v>20.15</v>
       </c>
       <c r="C395" t="n">
-        <v>0.05</v>
+        <v>20.15</v>
       </c>
       <c r="D395" t="s">
         <v>5</v>
@@ -8297,10 +8297,10 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>7.31</v>
+        <v>9.68</v>
       </c>
       <c r="C396" t="n">
-        <v>7.31</v>
+        <v>9.68</v>
       </c>
       <c r="D396" t="s">
         <v>5</v>
@@ -8317,10 +8317,10 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>-3.01</v>
+        <v>-11.2</v>
       </c>
       <c r="C397" t="n">
-        <v>3.01</v>
+        <v>11.2</v>
       </c>
       <c r="D397" t="s">
         <v>5</v>
@@ -8337,10 +8337,10 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>47.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C398" t="n">
-        <v>47.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D398" t="s">
         <v>5</v>
@@ -8357,10 +8357,10 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>4.24</v>
+        <v>6.44</v>
       </c>
       <c r="C399" t="n">
-        <v>4.24</v>
+        <v>6.44</v>
       </c>
       <c r="D399" t="s">
         <v>5</v>
@@ -8377,10 +8377,10 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>-177.14</v>
+        <v>-29.71</v>
       </c>
       <c r="C400" t="n">
-        <v>177.14</v>
+        <v>29.71</v>
       </c>
       <c r="D400" t="s">
         <v>5</v>
@@ -8397,10 +8397,10 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>-80.72</v>
+        <v>40.66</v>
       </c>
       <c r="C401" t="n">
-        <v>80.72</v>
+        <v>40.66</v>
       </c>
       <c r="D401" t="s">
         <v>5</v>
@@ -8417,10 +8417,10 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>99.72</v>
+        <v>106.84</v>
       </c>
       <c r="C402" t="n">
-        <v>99.72</v>
+        <v>106.84</v>
       </c>
       <c r="D402" t="s">
         <v>5</v>
@@ -8437,10 +8437,10 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>8.67</v>
+        <v>0.86</v>
       </c>
       <c r="C403" t="n">
-        <v>8.67</v>
+        <v>0.86</v>
       </c>
       <c r="D403" t="s">
         <v>5</v>
@@ -8457,10 +8457,10 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>159.97</v>
+        <v>113.72</v>
       </c>
       <c r="C404" t="n">
-        <v>159.97</v>
+        <v>113.72</v>
       </c>
       <c r="D404" t="s">
         <v>5</v>
@@ -8477,10 +8477,10 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>10.78</v>
+        <v>-6.06</v>
       </c>
       <c r="C405" t="n">
-        <v>10.78</v>
+        <v>6.06</v>
       </c>
       <c r="D405" t="s">
         <v>5</v>
@@ -8497,10 +8497,10 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>-54.13</v>
+        <v>8.85</v>
       </c>
       <c r="C406" t="n">
-        <v>54.13</v>
+        <v>8.85</v>
       </c>
       <c r="D406" t="s">
         <v>5</v>
@@ -8517,10 +8517,10 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>176.85</v>
+        <v>20.35</v>
       </c>
       <c r="C407" t="n">
-        <v>176.85</v>
+        <v>20.35</v>
       </c>
       <c r="D407" t="s">
         <v>5</v>
@@ -8537,10 +8537,10 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>-157.57</v>
+        <v>-162.64</v>
       </c>
       <c r="C408" t="n">
-        <v>157.57</v>
+        <v>162.64</v>
       </c>
       <c r="D408" t="s">
         <v>5</v>
@@ -8557,10 +8557,10 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>-104.14</v>
+        <v>-20.6</v>
       </c>
       <c r="C409" t="n">
-        <v>104.14</v>
+        <v>20.6</v>
       </c>
       <c r="D409" t="s">
         <v>5</v>
@@ -8577,10 +8577,10 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>0.6899999999999999</v>
+        <v>3.65</v>
       </c>
       <c r="C410" t="n">
-        <v>0.6899999999999999</v>
+        <v>3.65</v>
       </c>
       <c r="D410" t="s">
         <v>5</v>
@@ -8597,10 +8597,10 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>-7.48</v>
+        <v>-11.65</v>
       </c>
       <c r="C411" t="n">
-        <v>7.48</v>
+        <v>11.65</v>
       </c>
       <c r="D411" t="s">
         <v>5</v>
@@ -8617,10 +8617,10 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>40.36</v>
+        <v>-0.78</v>
       </c>
       <c r="C412" t="n">
-        <v>40.36</v>
+        <v>0.78</v>
       </c>
       <c r="D412" t="s">
         <v>5</v>
@@ -8637,10 +8637,10 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>6.87</v>
+        <v>5.84</v>
       </c>
       <c r="C413" t="n">
-        <v>6.87</v>
+        <v>5.84</v>
       </c>
       <c r="D413" t="s">
         <v>5</v>
@@ -8657,10 +8657,10 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>-16.6</v>
+        <v>86.53</v>
       </c>
       <c r="C414" t="n">
-        <v>16.6</v>
+        <v>86.53</v>
       </c>
       <c r="D414" t="s">
         <v>5</v>
@@ -8677,10 +8677,10 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>5.31</v>
+        <v>-29.99</v>
       </c>
       <c r="C415" t="n">
-        <v>5.31</v>
+        <v>29.99</v>
       </c>
       <c r="D415" t="s">
         <v>5</v>
@@ -8697,10 +8697,10 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>-60.23</v>
+        <v>147.98</v>
       </c>
       <c r="C416" t="n">
-        <v>60.23</v>
+        <v>147.98</v>
       </c>
       <c r="D416" t="s">
         <v>5</v>
@@ -8717,10 +8717,10 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>-0.78</v>
+        <v>-0.95</v>
       </c>
       <c r="C417" t="n">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="D417" t="s">
         <v>5</v>
@@ -8737,10 +8737,10 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>2.94</v>
+        <v>77.20999999999999</v>
       </c>
       <c r="C418" t="n">
-        <v>2.94</v>
+        <v>77.20999999999999</v>
       </c>
       <c r="D418" t="s">
         <v>5</v>
@@ -8757,10 +8757,10 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>-1.84</v>
+        <v>-4.57</v>
       </c>
       <c r="C419" t="n">
-        <v>1.84</v>
+        <v>4.57</v>
       </c>
       <c r="D419" t="s">
         <v>5</v>
@@ -8777,10 +8777,10 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>-102.63</v>
+        <v>-21.33</v>
       </c>
       <c r="C420" t="n">
-        <v>102.63</v>
+        <v>21.33</v>
       </c>
       <c r="D420" t="s">
         <v>5</v>
@@ -8797,10 +8797,10 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>-179.56</v>
+        <v>157.51</v>
       </c>
       <c r="C421" t="n">
-        <v>179.56</v>
+        <v>157.51</v>
       </c>
       <c r="D421" t="s">
         <v>5</v>
@@ -8817,10 +8817,10 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>100.03</v>
+        <v>-61.26</v>
       </c>
       <c r="C422" t="n">
-        <v>100.03</v>
+        <v>61.26</v>
       </c>
       <c r="D422" t="s">
         <v>5</v>
@@ -8837,10 +8837,10 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>-7.32</v>
+        <v>169.12</v>
       </c>
       <c r="C423" t="n">
-        <v>7.32</v>
+        <v>169.12</v>
       </c>
       <c r="D423" t="s">
         <v>5</v>
@@ -8857,10 +8857,10 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>-10.78</v>
+        <v>44.18</v>
       </c>
       <c r="C424" t="n">
-        <v>10.78</v>
+        <v>44.18</v>
       </c>
       <c r="D424" t="s">
         <v>5</v>
@@ -8877,10 +8877,10 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>-3.06</v>
+        <v>-9.52</v>
       </c>
       <c r="C425" t="n">
-        <v>3.06</v>
+        <v>9.52</v>
       </c>
       <c r="D425" t="s">
         <v>5</v>
@@ -8897,10 +8897,10 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>48.34</v>
+        <v>1.23</v>
       </c>
       <c r="C426" t="n">
-        <v>48.34</v>
+        <v>1.23</v>
       </c>
       <c r="D426" t="s">
         <v>5</v>
@@ -8917,10 +8917,10 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>-3.39</v>
+        <v>-105.42</v>
       </c>
       <c r="C427" t="n">
-        <v>3.39</v>
+        <v>105.42</v>
       </c>
       <c r="D427" t="s">
         <v>5</v>
@@ -8937,10 +8937,10 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>-95.2</v>
+        <v>-119.5</v>
       </c>
       <c r="C428" t="n">
-        <v>95.2</v>
+        <v>119.5</v>
       </c>
       <c r="D428" t="s">
         <v>5</v>
@@ -8957,10 +8957,10 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>2.93</v>
+        <v>-3.83</v>
       </c>
       <c r="C429" t="n">
-        <v>2.93</v>
+        <v>3.83</v>
       </c>
       <c r="D429" t="s">
         <v>5</v>
@@ -8977,10 +8977,10 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>-173.54</v>
+        <v>-36.63</v>
       </c>
       <c r="C430" t="n">
-        <v>173.54</v>
+        <v>36.63</v>
       </c>
       <c r="D430" t="s">
         <v>5</v>
@@ -8997,10 +8997,10 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>3.04</v>
+        <v>-156.69</v>
       </c>
       <c r="C431" t="n">
-        <v>3.04</v>
+        <v>156.69</v>
       </c>
       <c r="D431" t="s">
         <v>5</v>
@@ -9017,10 +9017,10 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>54.89</v>
+        <v>-9.25</v>
       </c>
       <c r="C432" t="n">
-        <v>54.89</v>
+        <v>9.25</v>
       </c>
       <c r="D432" t="s">
         <v>5</v>
@@ -9037,10 +9037,10 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>-152.59</v>
+        <v>154.99</v>
       </c>
       <c r="C433" t="n">
-        <v>152.59</v>
+        <v>154.99</v>
       </c>
       <c r="D433" t="s">
         <v>5</v>
@@ -9057,10 +9057,10 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>5.73</v>
+        <v>-105.87</v>
       </c>
       <c r="C434" t="n">
-        <v>5.73</v>
+        <v>105.87</v>
       </c>
       <c r="D434" t="s">
         <v>5</v>
@@ -9077,10 +9077,10 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>14.25</v>
+        <v>7.24</v>
       </c>
       <c r="C435" t="n">
-        <v>14.25</v>
+        <v>7.24</v>
       </c>
       <c r="D435" t="s">
         <v>5</v>
@@ -9097,10 +9097,10 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>6.55</v>
+        <v>83.64</v>
       </c>
       <c r="C436" t="n">
-        <v>6.55</v>
+        <v>83.64</v>
       </c>
       <c r="D436" t="s">
         <v>5</v>
@@ -9117,10 +9117,10 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>-115.04</v>
+        <v>-1.97</v>
       </c>
       <c r="C437" t="n">
-        <v>115.04</v>
+        <v>1.97</v>
       </c>
       <c r="D437" t="s">
         <v>5</v>
@@ -9137,10 +9137,10 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>-2.39</v>
+        <v>-170.24</v>
       </c>
       <c r="C438" t="n">
-        <v>2.39</v>
+        <v>170.24</v>
       </c>
       <c r="D438" t="s">
         <v>5</v>
@@ -9157,10 +9157,10 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>-2.18</v>
+        <v>0.08</v>
       </c>
       <c r="C439" t="n">
-        <v>2.18</v>
+        <v>0.08</v>
       </c>
       <c r="D439" t="s">
         <v>5</v>
@@ -9177,10 +9177,10 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>-2.22</v>
+        <v>151</v>
       </c>
       <c r="C440" t="n">
-        <v>2.22</v>
+        <v>151</v>
       </c>
       <c r="D440" t="s">
         <v>5</v>
@@ -9197,10 +9197,10 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>-174.81</v>
+        <v>-99.93000000000001</v>
       </c>
       <c r="C441" t="n">
-        <v>174.81</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D441" t="s">
         <v>5</v>
@@ -9217,10 +9217,10 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>89.11</v>
+        <v>0.98</v>
       </c>
       <c r="C442" t="n">
-        <v>89.11</v>
+        <v>0.98</v>
       </c>
       <c r="D442" t="s">
         <v>5</v>
@@ -9237,10 +9237,10 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>7.79</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="C443" t="n">
-        <v>7.79</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="D443" t="s">
         <v>5</v>
@@ -9257,10 +9257,10 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>-116.44</v>
+        <v>1.56</v>
       </c>
       <c r="C444" t="n">
-        <v>116.44</v>
+        <v>1.56</v>
       </c>
       <c r="D444" t="s">
         <v>5</v>
@@ -9277,10 +9277,10 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>-7.4</v>
+        <v>-11.33</v>
       </c>
       <c r="C445" t="n">
-        <v>7.4</v>
+        <v>11.33</v>
       </c>
       <c r="D445" t="s">
         <v>5</v>
@@ -9297,10 +9297,10 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>83.73</v>
+        <v>-152.3</v>
       </c>
       <c r="C446" t="n">
-        <v>83.73</v>
+        <v>152.3</v>
       </c>
       <c r="D446" t="s">
         <v>5</v>
@@ -9317,10 +9317,10 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>5.53</v>
+        <v>-7.76</v>
       </c>
       <c r="C447" t="n">
-        <v>5.53</v>
+        <v>7.76</v>
       </c>
       <c r="D447" t="s">
         <v>5</v>
@@ -9337,10 +9337,10 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>6.45</v>
+        <v>1.1</v>
       </c>
       <c r="C448" t="n">
-        <v>6.45</v>
+        <v>1.1</v>
       </c>
       <c r="D448" t="s">
         <v>5</v>
@@ -9357,10 +9357,10 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>-70.87</v>
+        <v>-14.99</v>
       </c>
       <c r="C449" t="n">
-        <v>70.87</v>
+        <v>14.99</v>
       </c>
       <c r="D449" t="s">
         <v>5</v>
@@ -9377,10 +9377,10 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>-47.26</v>
+        <v>-11.03</v>
       </c>
       <c r="C450" t="n">
-        <v>47.26</v>
+        <v>11.03</v>
       </c>
       <c r="D450" t="s">
         <v>5</v>
@@ -9397,10 +9397,10 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>0.31</v>
+        <v>2.03</v>
       </c>
       <c r="C451" t="n">
-        <v>0.31</v>
+        <v>2.03</v>
       </c>
       <c r="D451" t="s">
         <v>5</v>
@@ -9417,10 +9417,10 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>-21.04</v>
+        <v>-45.41</v>
       </c>
       <c r="C452" t="n">
-        <v>21.04</v>
+        <v>45.41</v>
       </c>
       <c r="D452" t="s">
         <v>5</v>
@@ -9437,10 +9437,10 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>3.35</v>
+        <v>46.54</v>
       </c>
       <c r="C453" t="n">
-        <v>3.35</v>
+        <v>46.54</v>
       </c>
       <c r="D453" t="s">
         <v>5</v>
@@ -9457,10 +9457,10 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>25.88</v>
+        <v>3.27</v>
       </c>
       <c r="C454" t="n">
-        <v>25.88</v>
+        <v>3.27</v>
       </c>
       <c r="D454" t="s">
         <v>5</v>
@@ -9477,10 +9477,10 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>-106.93</v>
+        <v>101.69</v>
       </c>
       <c r="C455" t="n">
-        <v>106.93</v>
+        <v>101.69</v>
       </c>
       <c r="D455" t="s">
         <v>5</v>
@@ -9497,10 +9497,10 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>-5.3</v>
+        <v>-12.76</v>
       </c>
       <c r="C456" t="n">
-        <v>5.3</v>
+        <v>12.76</v>
       </c>
       <c r="D456" t="s">
         <v>5</v>
@@ -9517,10 +9517,10 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>-11.96</v>
+        <v>0.34</v>
       </c>
       <c r="C457" t="n">
-        <v>11.96</v>
+        <v>0.34</v>
       </c>
       <c r="D457" t="s">
         <v>5</v>
@@ -9537,10 +9537,10 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>1.52</v>
+        <v>-7.06</v>
       </c>
       <c r="C458" t="n">
-        <v>1.52</v>
+        <v>7.06</v>
       </c>
       <c r="D458" t="s">
         <v>5</v>
@@ -9557,10 +9557,10 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>2.29</v>
+        <v>23.24</v>
       </c>
       <c r="C459" t="n">
-        <v>2.29</v>
+        <v>23.24</v>
       </c>
       <c r="D459" t="s">
         <v>5</v>
@@ -9577,10 +9577,10 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>65.56999999999999</v>
+        <v>165.92</v>
       </c>
       <c r="C460" t="n">
-        <v>65.56999999999999</v>
+        <v>165.92</v>
       </c>
       <c r="D460" t="s">
         <v>5</v>
@@ -9597,10 +9597,10 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>-58</v>
+        <v>6.66</v>
       </c>
       <c r="C461" t="n">
-        <v>58</v>
+        <v>6.66</v>
       </c>
       <c r="D461" t="s">
         <v>5</v>
@@ -9617,10 +9617,10 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>2.09</v>
+        <v>3.92</v>
       </c>
       <c r="C462" t="n">
-        <v>2.09</v>
+        <v>3.92</v>
       </c>
       <c r="D462" t="s">
         <v>5</v>
@@ -9637,10 +9637,10 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>-8.31</v>
+        <v>-2.1</v>
       </c>
       <c r="C463" t="n">
-        <v>8.31</v>
+        <v>2.1</v>
       </c>
       <c r="D463" t="s">
         <v>5</v>
@@ -9657,10 +9657,10 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>63.77</v>
+        <v>106.31</v>
       </c>
       <c r="C464" t="n">
-        <v>63.77</v>
+        <v>106.31</v>
       </c>
       <c r="D464" t="s">
         <v>5</v>
@@ -9677,10 +9677,10 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>-7.73</v>
+        <v>-25.76</v>
       </c>
       <c r="C465" t="n">
-        <v>7.73</v>
+        <v>25.76</v>
       </c>
       <c r="D465" t="s">
         <v>5</v>
@@ -9697,10 +9697,10 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>-66.95</v>
+        <v>16.81</v>
       </c>
       <c r="C466" t="n">
-        <v>66.95</v>
+        <v>16.81</v>
       </c>
       <c r="D466" t="s">
         <v>5</v>
@@ -9717,10 +9717,10 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>10.46</v>
+        <v>-5.98</v>
       </c>
       <c r="C467" t="n">
-        <v>10.46</v>
+        <v>5.98</v>
       </c>
       <c r="D467" t="s">
         <v>5</v>
@@ -9737,10 +9737,10 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>-62.54</v>
+        <v>1.22</v>
       </c>
       <c r="C468" t="n">
-        <v>62.54</v>
+        <v>1.22</v>
       </c>
       <c r="D468" t="s">
         <v>5</v>
@@ -9757,10 +9757,10 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>52.18</v>
+        <v>2.02</v>
       </c>
       <c r="C469" t="n">
-        <v>52.18</v>
+        <v>2.02</v>
       </c>
       <c r="D469" t="s">
         <v>5</v>
@@ -9777,10 +9777,10 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>-2.64</v>
+        <v>161.01</v>
       </c>
       <c r="C470" t="n">
-        <v>2.64</v>
+        <v>161.01</v>
       </c>
       <c r="D470" t="s">
         <v>5</v>
@@ -9797,10 +9797,10 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>-18.77</v>
+        <v>3.28</v>
       </c>
       <c r="C471" t="n">
-        <v>18.77</v>
+        <v>3.28</v>
       </c>
       <c r="D471" t="s">
         <v>5</v>
@@ -9817,10 +9817,10 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>-3.36</v>
+        <v>-156.18</v>
       </c>
       <c r="C472" t="n">
-        <v>3.36</v>
+        <v>156.18</v>
       </c>
       <c r="D472" t="s">
         <v>5</v>
@@ -9837,10 +9837,10 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>-14.24</v>
+        <v>-6.95</v>
       </c>
       <c r="C473" t="n">
-        <v>14.24</v>
+        <v>6.95</v>
       </c>
       <c r="D473" t="s">
         <v>5</v>
@@ -9857,10 +9857,10 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>-12.74</v>
+        <v>-50.67</v>
       </c>
       <c r="C474" t="n">
-        <v>12.74</v>
+        <v>50.67</v>
       </c>
       <c r="D474" t="s">
         <v>5</v>
@@ -9877,10 +9877,10 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>36.94</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="C475" t="n">
-        <v>36.94</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="D475" t="s">
         <v>5</v>
@@ -9897,10 +9897,10 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>36.7</v>
+        <v>-0.93</v>
       </c>
       <c r="C476" t="n">
-        <v>36.7</v>
+        <v>0.93</v>
       </c>
       <c r="D476" t="s">
         <v>5</v>
@@ -9917,10 +9917,10 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>-139.11</v>
+        <v>-26.55</v>
       </c>
       <c r="C477" t="n">
-        <v>139.11</v>
+        <v>26.55</v>
       </c>
       <c r="D477" t="s">
         <v>5</v>
@@ -9937,10 +9937,10 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>-6.78</v>
+        <v>126.21</v>
       </c>
       <c r="C478" t="n">
-        <v>6.78</v>
+        <v>126.21</v>
       </c>
       <c r="D478" t="s">
         <v>5</v>
@@ -9957,10 +9957,10 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>12.04</v>
+        <v>45.85</v>
       </c>
       <c r="C479" t="n">
-        <v>12.04</v>
+        <v>45.85</v>
       </c>
       <c r="D479" t="s">
         <v>5</v>
@@ -9977,10 +9977,10 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>6.03</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C480" t="n">
-        <v>6.03</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="D480" t="s">
         <v>5</v>
@@ -9997,10 +9997,10 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>-159.75</v>
+        <v>-2.24</v>
       </c>
       <c r="C481" t="n">
-        <v>159.75</v>
+        <v>2.24</v>
       </c>
       <c r="D481" t="s">
         <v>5</v>
@@ -10017,10 +10017,10 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>32.86</v>
+        <v>-5.98</v>
       </c>
       <c r="C482" t="n">
-        <v>32.86</v>
+        <v>5.98</v>
       </c>
       <c r="D482" t="s">
         <v>5</v>
@@ -10037,10 +10037,10 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>151.75</v>
+        <v>10.86</v>
       </c>
       <c r="C483" t="n">
-        <v>151.75</v>
+        <v>10.86</v>
       </c>
       <c r="D483" t="s">
         <v>5</v>
@@ -10057,10 +10057,10 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>-11.6</v>
+        <v>-0.77</v>
       </c>
       <c r="C484" t="n">
-        <v>11.6</v>
+        <v>0.77</v>
       </c>
       <c r="D484" t="s">
         <v>5</v>
@@ -10077,10 +10077,10 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>4.34</v>
+        <v>32.1</v>
       </c>
       <c r="C485" t="n">
-        <v>4.34</v>
+        <v>32.1</v>
       </c>
       <c r="D485" t="s">
         <v>5</v>
@@ -10097,10 +10097,10 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>100.73</v>
+        <v>107.6</v>
       </c>
       <c r="C486" t="n">
-        <v>100.73</v>
+        <v>107.6</v>
       </c>
       <c r="D486" t="s">
         <v>5</v>
@@ -10117,10 +10117,10 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>4.43</v>
+        <v>-113.56</v>
       </c>
       <c r="C487" t="n">
-        <v>4.43</v>
+        <v>113.56</v>
       </c>
       <c r="D487" t="s">
         <v>5</v>
@@ -10137,10 +10137,10 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>-3.88</v>
+        <v>11.72</v>
       </c>
       <c r="C488" t="n">
-        <v>3.88</v>
+        <v>11.72</v>
       </c>
       <c r="D488" t="s">
         <v>5</v>
@@ -10157,10 +10157,10 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>-136.2</v>
+        <v>-4.07</v>
       </c>
       <c r="C489" t="n">
-        <v>136.2</v>
+        <v>4.07</v>
       </c>
       <c r="D489" t="s">
         <v>5</v>
@@ -10177,10 +10177,10 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>179.58</v>
+        <v>131.11</v>
       </c>
       <c r="C490" t="n">
-        <v>179.58</v>
+        <v>131.11</v>
       </c>
       <c r="D490" t="s">
         <v>5</v>
@@ -10197,10 +10197,10 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>0.04</v>
+        <v>116.37</v>
       </c>
       <c r="C491" t="n">
-        <v>0.04</v>
+        <v>116.37</v>
       </c>
       <c r="D491" t="s">
         <v>5</v>
@@ -10217,10 +10217,10 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>-69.06999999999999</v>
+        <v>25.99</v>
       </c>
       <c r="C492" t="n">
-        <v>69.06999999999999</v>
+        <v>25.99</v>
       </c>
       <c r="D492" t="s">
         <v>5</v>
@@ -10237,10 +10237,10 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>2.89</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C493" t="n">
-        <v>2.89</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D493" t="s">
         <v>5</v>
@@ -10257,10 +10257,10 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>6.43</v>
+        <v>3.89</v>
       </c>
       <c r="C494" t="n">
-        <v>6.43</v>
+        <v>3.89</v>
       </c>
       <c r="D494" t="s">
         <v>5</v>
@@ -10277,10 +10277,10 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>-3.85</v>
+        <v>-4.26</v>
       </c>
       <c r="C495" t="n">
-        <v>3.85</v>
+        <v>4.26</v>
       </c>
       <c r="D495" t="s">
         <v>5</v>
@@ -10297,10 +10297,10 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>-156.1</v>
+        <v>92.64</v>
       </c>
       <c r="C496" t="n">
-        <v>156.1</v>
+        <v>92.64</v>
       </c>
       <c r="D496" t="s">
         <v>5</v>
@@ -10317,10 +10317,10 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>1.25</v>
+        <v>-98.84</v>
       </c>
       <c r="C497" t="n">
-        <v>1.25</v>
+        <v>98.84</v>
       </c>
       <c r="D497" t="s">
         <v>5</v>
@@ -10337,10 +10337,10 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>-131.4</v>
+        <v>-130.71</v>
       </c>
       <c r="C498" t="n">
-        <v>131.4</v>
+        <v>130.71</v>
       </c>
       <c r="D498" t="s">
         <v>5</v>
@@ -10357,10 +10357,10 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>22.81</v>
+        <v>-2.4</v>
       </c>
       <c r="C499" t="n">
-        <v>22.81</v>
+        <v>2.4</v>
       </c>
       <c r="D499" t="s">
         <v>5</v>
@@ -10377,10 +10377,10 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>73.3</v>
+        <v>7.06</v>
       </c>
       <c r="C500" t="n">
-        <v>73.3</v>
+        <v>7.06</v>
       </c>
       <c r="D500" t="s">
         <v>5</v>
@@ -10397,10 +10397,10 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>-33.56</v>
+        <v>-8.949999999999999</v>
       </c>
       <c r="C501" t="n">
-        <v>33.56</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="D501" t="s">
         <v>5</v>
